--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6FDD81-58F5-4612-830A-2D4E4089E673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAC607A-BAA0-4757-8084-AB70C5B9B0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="练习册" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">练习册!$A$1:$H$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">练习册!$A$1:$H$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -79,10 +79,6 @@
   </si>
   <si>
     <t>题目数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线性代数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -118,6 +114,24 @@
   </si>
   <si>
     <t>微分方程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行列式
+矩阵
+运算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秩
+方程组
+向量组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征值
+相似
+二次型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +170,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -179,6 +193,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -186,7 +237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,9 +249,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -484,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84913E53-D137-4B9D-B3CA-1DD52A32DAA8}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -501,27 +561,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
@@ -534,11 +594,11 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
+      <c r="A3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -565,7 +625,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -594,7 +654,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -624,8 +684,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
+      <c r="A6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -651,7 +711,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -677,7 +737,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -707,8 +767,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
+      <c r="A9" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
@@ -735,7 +795,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -761,7 +821,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -791,8 +851,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>18</v>
+      <c r="A12" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -817,7 +877,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -842,7 +902,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -872,8 +932,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
+      <c r="A15" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -898,7 +958,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -923,7 +983,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -953,7 +1013,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -979,7 +1039,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1064,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1094,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1060,7 +1120,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1085,7 +1145,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1115,10 +1175,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="3">
         <f>1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
         <v>0.64179104477611948</v>
@@ -1146,7 +1206,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
@@ -1156,10 +1216,12 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1168,10 +1230,12 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1195,70 +1259,151 @@
         <f t="shared" ref="G27" si="23">1-G25/G26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="3" t="e">
-        <f t="shared" ref="H27" si="24">1-H25/H26</f>
-        <v>#DIV/0!</v>
+      <c r="H27" s="3">
+        <f>1-H25/H26</f>
+        <v>0.15789473684210531</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>19</v>
+      <c r="A28" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="3" t="e">
-        <f>1-C28/C29</f>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3" t="e">
+        <f>1-C34/C35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="3" t="e">
-        <f t="shared" ref="D30" si="25">1-D28/D29</f>
+      <c r="D36" s="3" t="e">
+        <f t="shared" ref="D36" si="24">1-D34/D35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="3" t="e">
-        <f t="shared" ref="E30" si="26">1-E28/E29</f>
+      <c r="E36" s="3" t="e">
+        <f t="shared" ref="E36" si="25">1-E34/E35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="3" t="e">
-        <f t="shared" ref="F30" si="27">1-F28/F29</f>
+      <c r="F36" s="3" t="e">
+        <f t="shared" ref="F36" si="26">1-F34/F35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="3" t="e">
-        <f t="shared" ref="G30" si="28">1-G28/G29</f>
+      <c r="G36" s="3" t="e">
+        <f t="shared" ref="G36" si="27">1-G34/G35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="3" t="e">
-        <f t="shared" ref="H30" si="29">1-H28/H29</f>
+      <c r="H36" s="3" t="e">
+        <f t="shared" ref="H36" si="28">1-H34/H35</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A28:A30"/>
+  <mergeCells count="17">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A34:A36"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
@@ -1268,11 +1413,8 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C5:H5 C8:H8 C5:H11 C8:H8 C11:H11 C14:H14 C17:H17 C20:H20 C23:H23 C24:H24">

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAC607A-BAA0-4757-8084-AB70C5B9B0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9442490F-77B3-4885-B352-E14B064D1546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4464" yWindow="3408" windowWidth="13164" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="练习册" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">练习册!$A$1:$H$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">练习册!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,15 +123,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>秩
-方程组
-向量组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>特征值
 相似
 二次型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方程组
+向量组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的秩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,10 +252,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,8 +266,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -544,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84913E53-D137-4B9D-B3CA-1DD52A32DAA8}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -561,27 +579,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
@@ -594,10 +612,10 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -625,7 +643,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -654,7 +672,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -684,7 +702,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -711,7 +729,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -737,7 +755,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -767,7 +785,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -795,7 +813,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -821,7 +839,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -851,7 +869,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -877,7 +895,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -902,7 +920,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -932,7 +950,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -958,7 +976,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -983,7 +1001,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1013,7 +1031,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1039,7 +1057,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1064,7 +1082,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1094,7 +1112,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1120,7 +1138,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1145,7 +1163,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1175,10 +1193,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="3">
         <f>1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
         <v>0.64179104477611948</v>
@@ -1205,7 +1223,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1221,7 +1239,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1235,7 +1253,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1265,109 +1283,161 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>21</v>
+      <c r="A28" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="13">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11">
+        <v>5</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="13">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="C30" s="3" t="e">
+        <f>1-C28/C29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="3" t="e">
+        <f t="shared" ref="D30:G30" si="24">1-D28/D29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="3" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="3">
+        <f>1-H28/H29</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11">
+        <v>7</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11">
+        <v>16</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="C33" s="3" t="e">
+        <f>1-C31/C32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="3" t="e">
+        <f t="shared" ref="D33:G33" si="25">1-D31/D32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="25"/>
+        <v>0.5625</v>
+      </c>
+      <c r="F33" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="3">
+        <f>1-H31/H32</f>
+        <v>0.33333333333333337</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>18</v>
+      <c r="A34" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="2" t="s">
         <v>11</v>
       </c>
@@ -1376,34 +1446,85 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D36" s="3" t="e">
-        <f t="shared" ref="D36" si="24">1-D34/D35</f>
+        <f t="shared" ref="D36:G36" si="26">1-D34/D35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E36" s="3" t="e">
-        <f t="shared" ref="E36" si="25">1-E34/E35</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F36" s="3" t="e">
-        <f t="shared" ref="F36" si="26">1-F34/F35</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G36" s="3" t="e">
-        <f t="shared" ref="G36" si="27">1-G34/G35</f>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="3" t="e">
-        <f t="shared" ref="H36" si="28">1-H34/H35</f>
+        <f>1-H34/H35</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="3" t="e">
+        <f>1-C37/C38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" s="3" t="e">
+        <f t="shared" ref="D39" si="27">1-D37/D38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="3" t="e">
+        <f t="shared" ref="E39" si="28">1-E37/E38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" s="3" t="e">
+        <f t="shared" ref="F39" si="29">1-F37/F38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="3" t="e">
+        <f t="shared" ref="G39" si="30">1-G37/G38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="3" t="e">
+        <f t="shared" ref="H39" si="31">1-H37/H38</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A34:A36"/>
+  <mergeCells count="18">
+    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
@@ -1414,7 +1535,13 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A34:A36"/>
     <mergeCell ref="A31:A33"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C5:H5 C8:H8 C5:H11 C8:H8 C11:H11 C14:H14 C17:H17 C20:H20 C23:H23 C24:H24">

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9442490F-77B3-4885-B352-E14B064D1546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A6545B-79F0-4334-998C-22E009FDE066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4464" yWindow="3408" windowWidth="13164" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="练习册" sheetId="2" r:id="rId1"/>
+    <sheet name="一轮真题与模拟" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">练习册!$A$1:$H$39</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -108,24 +109,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>概率论与
-数理统计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>微分方程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行列式
-矩阵
-运算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特征值
-相似
-二次型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -135,6 +119,106 @@
   </si>
   <si>
     <t>矩阵的秩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线代
+总正确率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机事件和概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机变量
+和函数的分布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字特征</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数理统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率
+总正确率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行列式
+与矩阵的
+运算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征值与特征向量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行列式与
+矩阵的
+运算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量组
+方程组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征值与
+特征向量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机事件
+和概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机事件
+和函数的
+分布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h59min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h30min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +248,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -196,43 +289,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -240,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,34 +307,22 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84913E53-D137-4B9D-B3CA-1DD52A32DAA8}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A30"/>
+    <sheetView zoomScale="103" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -578,28 +622,44 @@
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
@@ -612,10 +672,26 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -641,9 +717,29 @@
         <f>29+16</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="J3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2">
+        <v>6</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -666,13 +762,27 @@
       <c r="H4" s="2">
         <v>96</v>
       </c>
-      <c r="J4" s="1">
-        <f>SUM(C4:H4,C7:H7,C10:H10,C13:H13,C16:H16,C19:H19,C22:H22,)</f>
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2">
+        <v>21</v>
+      </c>
+      <c r="N4" s="2">
+        <v>23</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -700,9 +810,37 @@
         <f t="shared" si="0"/>
         <v>0.53125</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="3">
+        <f>1-L3/L4</f>
+        <v>0.74</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" ref="M5" si="1">1-M3/M4</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" ref="N5" si="2">1-N3/N4</f>
+        <v>0.47826086956521741</v>
+      </c>
+      <c r="O5" s="3" t="e">
+        <f t="shared" ref="O5" si="3">1-O3/O4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" s="3" t="e">
+        <f t="shared" ref="P5" si="4">1-P3/P4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>1-Q3/Q4</f>
+        <v>0.15789473684210531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -727,9 +865,29 @@
         <f>8+3+6+37</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="J6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4">
+        <v>4</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -753,9 +911,27 @@
         <f>11+14+19+50</f>
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="4">
+        <v>10</v>
+      </c>
+      <c r="M7" s="4">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>5</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -764,28 +940,56 @@
         <v>0.54166666666666674</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:H8" si="1">1-D6/D7</f>
+        <f t="shared" ref="D8:H8" si="5">1-D6/D7</f>
         <v>0.61538461538461542</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.7583333333333333</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.63793103448275867</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.42222222222222228</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.42553191489361697</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="3">
+        <f>1-L6/L7</f>
+        <v>0.6</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" ref="M8:P8" si="6">1-M6/M7</f>
+        <v>0.5</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>1-Q6/Q7</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -811,9 +1015,29 @@
         <f>11+19+18+20</f>
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="J9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="4">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4">
+        <v>5</v>
+      </c>
+      <c r="N9" s="4">
+        <v>7</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -837,9 +1061,27 @@
         <f>19+31+40+35</f>
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="4">
+        <v>43</v>
+      </c>
+      <c r="M10" s="4">
+        <v>24</v>
+      </c>
+      <c r="N10" s="4">
+        <v>16</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -848,28 +1090,56 @@
         <v>0.61538461538461542</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" ref="D11:H11" si="2">1-D9/D10</f>
+        <f t="shared" ref="D11:H11" si="7">1-D9/D10</f>
         <v>0.66666666666666674</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.56363636363636371</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.51428571428571423</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.45599999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="J11" s="6"/>
+      <c r="K11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="3">
+        <f>1-L9/L10</f>
+        <v>0.83720930232558133</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" ref="M11:P11" si="8">1-M9/M10</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5625</v>
+      </c>
+      <c r="O11" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" s="3" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>1-Q9/Q10</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -893,9 +1163,29 @@
       <c r="H12" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="J12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4">
+        <v>11</v>
+      </c>
+      <c r="M12" s="4">
+        <v>10</v>
+      </c>
+      <c r="N12" s="4">
+        <v>25</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -918,9 +1208,27 @@
       <c r="H13" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="4">
+        <v>37</v>
+      </c>
+      <c r="M13" s="4">
+        <v>27</v>
+      </c>
+      <c r="N13" s="4">
+        <v>89</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -929,29 +1237,57 @@
         <v>0.75</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14" si="3">1-D12/D13</f>
+        <f t="shared" ref="D14" si="9">1-D12/D13</f>
         <v>0.55882352941176472</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" ref="E14" si="4">1-E12/E13</f>
+        <f t="shared" ref="E14" si="10">1-E12/E13</f>
         <v>0.47169811320754718</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" ref="F14" si="5">1-F12/F13</f>
+        <f t="shared" ref="F14" si="11">1-F12/F13</f>
         <v>0.640625</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" ref="G14" si="6">1-G12/G13</f>
+        <f t="shared" ref="G14" si="12">1-G12/G13</f>
         <v>0.51351351351351349</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" ref="H14" si="7">1-H12/H13</f>
+        <f t="shared" ref="H14" si="13">1-H12/H13</f>
         <v>0.48192771084337349</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
+      <c r="J14" s="7"/>
+      <c r="K14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="3">
+        <f>1-L12/L13</f>
+        <v>0.70270270270270263</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" ref="M14:P14" si="14">1-M12/M13</f>
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="14"/>
+        <v>0.7191011235955056</v>
+      </c>
+      <c r="O14" s="3" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" s="3" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>1-Q12/Q13</f>
+        <v>0.47058823529411764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -974,9 +1310,41 @@
       <c r="H15" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="J15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="8">
+        <f>1-SUM(L3,L6,L9,L12)/SUM(L4,L7,L10,L13)</f>
+        <v>0.75</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" ref="M15:Q15" si="15">1-SUM(M3,M6,M9,M12)/SUM(M4,M7,M10,M13)</f>
+        <v>0.70270270270270263</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="15"/>
+        <v>0.66917293233082709</v>
+      </c>
+      <c r="O15" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="15"/>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="R15" s="7">
+        <f>SUM(L4:Q4,L7:Q7,L10:Q10,L13:Q13)</f>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -999,9 +1367,18 @@
       <c r="H16" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="7"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1010,28 +1387,48 @@
         <v>0.46666666666666667</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" ref="D17:H17" si="8">1-D15/D16</f>
+        <f t="shared" ref="D17:H17" si="16">1-D15/D16</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.6607142857142857</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.65625</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.34782608695652173</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.4642857142857143</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="J17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="2">
+        <v>6</v>
+      </c>
+      <c r="M17" s="2">
+        <v>4</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1055,9 +1452,27 @@
       <c r="H18" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="2">
+        <v>18</v>
+      </c>
+      <c r="M18" s="2">
+        <v>10</v>
+      </c>
+      <c r="N18" s="2">
+        <v>3</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1080,9 +1495,37 @@
       <c r="H19" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="3">
+        <f>1-L17/L18</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" ref="M19" si="17">1-M17/M18</f>
+        <v>0.6</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" ref="N19" si="18">1-N17/N18</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="3" t="e">
+        <f t="shared" ref="O19" si="19">1-O17/O18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" s="3" t="e">
+        <f t="shared" ref="P19" si="20">1-P17/P18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" ref="Q19" si="21">1-Q17/Q18</f>
+        <v>0.22727272727272729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1091,28 +1534,48 @@
         <v>0.45454545454545459</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" ref="D20" si="9">1-D18/D19</f>
+        <f t="shared" ref="D20" si="22">1-D18/D19</f>
         <v>0.52941176470588236</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" ref="E20" si="10">1-E18/E19</f>
+        <f t="shared" ref="E20" si="23">1-E18/E19</f>
         <v>0.59090909090909083</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" ref="F20" si="11">1-F18/F19</f>
+        <f t="shared" ref="F20" si="24">1-F18/F19</f>
         <v>0.53846153846153844</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" ref="G20" si="12">1-G18/G19</f>
+        <f t="shared" ref="G20" si="25">1-G18/G19</f>
         <v>0.45454545454545459</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" ref="H20" si="13">1-H18/H19</f>
+        <f t="shared" ref="H20" si="26">1-H18/H19</f>
         <v>0.46753246753246758</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="J20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="2">
+        <v>12</v>
+      </c>
+      <c r="M20" s="2">
+        <v>9</v>
+      </c>
+      <c r="N20" s="2">
+        <v>8</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1136,9 +1599,27 @@
       <c r="H21" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="2">
+        <v>51</v>
+      </c>
+      <c r="M21" s="2">
+        <v>22</v>
+      </c>
+      <c r="N21" s="2">
+        <v>21</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1161,9 +1642,37 @@
       <c r="H22" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="3">
+        <f>1-L20/L21</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" ref="M22:Q22" si="27">1-M20/M21</f>
+        <v>0.59090909090909083</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="27"/>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="O22" s="3" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" s="3" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" s="3">
+        <f t="shared" si="27"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1172,380 +1681,329 @@
         <v>0.58333333333333326</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" ref="D23" si="14">1-D21/D22</f>
+        <f t="shared" ref="D23" si="28">1-D21/D22</f>
         <v>0.70967741935483875</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" ref="E23" si="15">1-E21/E22</f>
+        <f t="shared" ref="E23" si="29">1-E21/E22</f>
         <v>0.38888888888888884</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" ref="F23" si="16">1-F21/F22</f>
+        <f t="shared" ref="F23" si="30">1-F21/F22</f>
         <v>0.72972972972972971</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" ref="G23" si="17">1-G21/G22</f>
+        <f t="shared" ref="G23" si="31">1-G21/G22</f>
         <v>0.41176470588235292</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" ref="H23" si="18">1-H21/H22</f>
+        <f t="shared" ref="H23" si="32">1-H21/H22</f>
         <v>0.51515151515151514</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="J23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="2">
+        <v>12</v>
+      </c>
+      <c r="M23" s="2">
+        <v>12</v>
+      </c>
+      <c r="N23" s="2">
+        <v>8</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3">
+      <c r="B24" s="6"/>
+      <c r="C24" s="8">
         <f>1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
         <v>0.64179104477611948</v>
       </c>
-      <c r="D24" s="3">
-        <f t="shared" ref="D24:H24" si="19">1-(D3+D6+D9+D12+D15+D18+D21)/(D4+D7+D10+D13+D16+D19+D22)</f>
+      <c r="D24" s="8">
+        <f t="shared" ref="D24:H24" si="33">1-(D3+D6+D9+D12+D15+D18+D21)/(D4+D7+D10+D13+D16+D19+D22)</f>
         <v>0.68717948717948718</v>
       </c>
-      <c r="E24" s="3">
-        <f t="shared" si="19"/>
+      <c r="E24" s="8">
+        <f t="shared" si="33"/>
         <v>0.60526315789473684</v>
       </c>
-      <c r="F24" s="3">
-        <f t="shared" si="19"/>
+      <c r="F24" s="8">
+        <f t="shared" si="33"/>
         <v>0.62190812720848054</v>
       </c>
-      <c r="G24" s="3">
-        <f t="shared" si="19"/>
+      <c r="G24" s="8">
+        <f t="shared" si="33"/>
         <v>0.44827586206896552</v>
       </c>
-      <c r="H24" s="3">
-        <f t="shared" si="19"/>
+      <c r="H24" s="8">
+        <f t="shared" si="33"/>
         <v>0.47627416520210897</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="I24" s="7">
+        <f>SUM(C4:H4,C7:H7,C13:H13,C16:H16,C19:H19,C22:H22,C10:H10)</f>
+        <v>2079</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="2">
+        <v>33</v>
+      </c>
+      <c r="M24" s="2">
+        <v>17</v>
+      </c>
+      <c r="N24" s="2">
+        <v>13</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="3">
+        <f>1-L23/L24</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" ref="M25:Q25" si="34">1-M23/M24</f>
+        <v>0.29411764705882348</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="34"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="O25" s="3" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="3" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="34"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="1">
+        <v>18</v>
+      </c>
+      <c r="M26" s="2">
+        <v>16</v>
+      </c>
+      <c r="N26" s="2">
+        <v>15</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J27" s="7"/>
+      <c r="K27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="2">
+        <v>40</v>
+      </c>
+      <c r="M27" s="2">
+        <v>22</v>
+      </c>
+      <c r="N27" s="2">
+        <v>39</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2">
         <v>20</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J28" s="7"/>
+      <c r="K28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="3" t="e">
-        <f>1-C25/C26</f>
+      <c r="L28" s="3">
+        <f>1-L26/L27</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" ref="M28:Q28" si="35">1-M26/M27</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="35"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="O28" s="3" t="e">
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="3" t="e">
-        <f t="shared" ref="D27" si="20">1-D25/D26</f>
+      <c r="P28" s="3" t="e">
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="3" t="e">
-        <f t="shared" ref="E27" si="21">1-E25/E26</f>
+      <c r="Q28" s="3">
+        <f t="shared" si="35"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="8">
+        <f>1-SUM(L17,L20,L23,L26)/SUM(L18,L21,L24,L27)</f>
+        <v>0.6619718309859155</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" ref="M29:Q29" si="36">1-SUM(M17,M20,M23,M26)/SUM(M18,M21,M24,M27)</f>
+        <v>0.42253521126760563</v>
+      </c>
+      <c r="N29" s="8">
+        <f t="shared" si="36"/>
+        <v>0.59210526315789469</v>
+      </c>
+      <c r="O29" s="8" t="e">
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="3" t="e">
-        <f t="shared" ref="F27" si="22">1-F25/F26</f>
+      <c r="P29" s="8" t="e">
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="3" t="e">
-        <f t="shared" ref="G27" si="23">1-G25/G26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="3">
-        <f>1-H25/H26</f>
-        <v>0.15789473684210531</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11">
-        <v>0</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11">
-        <v>5</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3" t="e">
-        <f>1-C28/C29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D30" s="3" t="e">
-        <f t="shared" ref="D30:G30" si="24">1-D28/D29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="F30" s="3" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="3" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="3">
-        <f>1-H28/H29</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11">
-        <v>7</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11">
-        <v>16</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="3" t="e">
-        <f>1-C31/C32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="3" t="e">
-        <f t="shared" ref="D33:G33" si="25">1-D31/D32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" si="25"/>
-        <v>0.5625</v>
-      </c>
-      <c r="F33" s="3" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="3" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="3">
-        <f>1-H31/H32</f>
-        <v>0.33333333333333337</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="3" t="e">
-        <f>1-C34/C35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D36" s="3" t="e">
-        <f t="shared" ref="D36:G36" si="26">1-D34/D35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="3" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="3" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="3" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="3" t="e">
-        <f>1-H34/H35</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="3" t="e">
-        <f>1-C37/C38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D39" s="3" t="e">
-        <f t="shared" ref="D39" si="27">1-D37/D38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" s="3" t="e">
-        <f t="shared" ref="E39" si="28">1-E37/E38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F39" s="3" t="e">
-        <f t="shared" ref="F39" si="29">1-F37/F38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="3" t="e">
-        <f t="shared" ref="G39" si="30">1-G37/G38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="3" t="e">
-        <f t="shared" ref="H39" si="31">1-H37/H38</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="Q29" s="8">
+        <f t="shared" si="36"/>
+        <v>0.26436781609195403</v>
+      </c>
+      <c r="R29" s="7">
+        <f>SUM(L18:Q18,L21:Q21,L24:Q24,L27:Q27)</f>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A37:A39"/>
+  <mergeCells count="49">
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="Q29:Q30"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="O29:O30"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="J17:J19"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J20:J22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C5:H5 C8:H8 C5:H11 C8:H8 C11:H11 C14:H14 C17:H17 C20:H20 C23:H23 C24:H24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.6"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:Q8 L8:Q8 L11:Q11 L14:Q14 L19:Q19 L22:Q22 L25:Q25 L28:Q28">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.6"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:Q15 L5:Q5 L29:Q30">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="num" val="0.6"/>
@@ -1556,4 +2014,188 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B58219-FF6E-4F14-AEAF-2D4CEA1BD871}">
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="1">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="1">
+        <v>128</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A6545B-79F0-4334-998C-22E009FDE066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7328AED-E93E-41DB-AE24-1D0311FA3C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -219,6 +219,22 @@
   </si>
   <si>
     <t>2h30min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h43min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h26min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h25mn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2018,16 +2034,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B58219-FF6E-4F14-AEAF-2D4CEA1BD871}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
@@ -2184,6 +2201,117 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="1">
+        <v>111</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6</v>
+      </c>
+      <c r="R5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="1">
+        <v>127</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="1">
+        <v>118</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>7</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1">
+        <f>AVERAGE(B3:B7)</f>
+        <v>121.2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="L1:O1"/>

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7328AED-E93E-41DB-AE24-1D0311FA3C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2705D644-5D20-4FFE-89A0-58CB0DB29E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="练习册" sheetId="2" r:id="rId1"/>
     <sheet name="一轮真题与模拟" sheetId="3" r:id="rId2"/>
+    <sheet name="顽固错题" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">练习册!$A$1:$H$39</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -235,6 +236,84 @@
   </si>
   <si>
     <t>AVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h44min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h05min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h51min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h16min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h27min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.13 1.19 1.25 1.39
+1.42 1.45 1.46 1.50
+1.52 1.60 1.61 1.63
+1.64 1.66 2.12 2.13 2.15 2.16 2.17 2.19
+2.22 2.24 2.25 2.29
+2.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 3.3 3.9 3.10
+5.3 5.7 5.11 5.12
+6.2 6.3 6.7 6.8 6.9
+6.18 6.19 6.20 6.23
+6.27 6.28 6.29 6.30
+6.31 6.32 6.33 6.34
+6.35 6.36 6.38 6.39
+6.40 6.41 6.42 6.45
+6.46 6.47 6.48 6.49
+6.50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.3 8.4 8.9 9.5 9.6
+9.7 9.8 9.11 9.15
+9.16 9.17 9.19 9.21
+9.22 9.23 10.8
+10.18 10.23 10.25
+10.29 10.30 10.40
+11.3 11.7 11.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.2 18.7 18.11 
+18.22 18.24 18.25 18.27 18.29 18.34 18.36 18.39 18.40
+18.43 18.44 18.49 18.50 18.52 18.55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张八（1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h17min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021（自测）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h04min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -242,6 +321,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,15 +356,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -305,6 +393,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -312,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,6 +516,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -339,6 +529,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -624,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84913E53-D137-4B9D-B3CA-1DD52A32DAA8}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScale="118" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -639,43 +886,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7" t="s">
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
@@ -688,10 +935,10 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
@@ -704,10 +951,10 @@
       <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="7"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -733,7 +980,7 @@
         <f>29+16</f>
         <v>45</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -755,7 +1002,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -778,7 +1025,7 @@
       <c r="H4" s="2">
         <v>96</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="2" t="s">
         <v>12</v>
       </c>
@@ -798,7 +1045,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -826,7 +1073,7 @@
         <f t="shared" si="0"/>
         <v>0.53125</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="2" t="s">
         <v>11</v>
       </c>
@@ -856,7 +1103,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -881,7 +1128,7 @@
         <f>8+3+6+37</f>
         <v>54</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -903,7 +1150,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -927,7 +1174,7 @@
         <f>11+14+19+50</f>
         <v>94</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="2" t="s">
         <v>12</v>
       </c>
@@ -947,7 +1194,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -975,7 +1222,7 @@
         <f t="shared" si="5"/>
         <v>0.42553191489361697</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1005,7 +1252,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1031,7 +1278,7 @@
         <f>11+19+18+20</f>
         <v>68</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1053,7 +1300,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1324,7 @@
         <f>19+31+40+35</f>
         <v>125</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1097,7 +1344,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1372,7 @@
         <f t="shared" si="7"/>
         <v>0.45599999999999996</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1155,7 +1402,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1179,7 +1426,7 @@
       <c r="H12" s="2">
         <v>43</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1201,7 +1448,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1471,7 @@
       <c r="H13" s="2">
         <v>83</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1491,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1272,7 +1519,7 @@
         <f t="shared" ref="H14" si="13">1-H12/H13</f>
         <v>0.48192771084337349</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1302,7 +1549,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1326,41 +1573,41 @@
       <c r="H15" s="2">
         <v>15</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="8">
+      <c r="K15" s="7"/>
+      <c r="L15" s="9">
         <f>1-SUM(L3,L6,L9,L12)/SUM(L4,L7,L10,L13)</f>
         <v>0.75</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="9">
         <f t="shared" ref="M15:Q15" si="15">1-SUM(M3,M6,M9,M12)/SUM(M4,M7,M10,M13)</f>
         <v>0.70270270270270263</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="9">
         <f t="shared" si="15"/>
         <v>0.66917293233082709</v>
       </c>
-      <c r="O15" s="8" t="e">
+      <c r="O15" s="9" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P15" s="8" t="e">
+      <c r="P15" s="9" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="9">
         <f t="shared" si="15"/>
         <v>0.30434782608695654</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="8">
         <f>SUM(L4:Q4,L7:Q7,L10:Q10,L13:Q13)</f>
         <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1383,18 +1630,18 @@
       <c r="H16" s="2">
         <v>28</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="8"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1422,7 +1669,7 @@
         <f t="shared" si="16"/>
         <v>0.4642857142857143</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1444,7 +1691,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1468,7 +1715,7 @@
       <c r="H18" s="2">
         <v>41</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1488,7 +1735,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1511,7 +1758,7 @@
       <c r="H19" s="2">
         <v>77</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1541,7 +1788,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1569,7 +1816,7 @@
         <f t="shared" ref="H20" si="26">1-H18/H19</f>
         <v>0.46753246753246758</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -1591,7 +1838,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1615,7 +1862,7 @@
       <c r="H21" s="2">
         <v>32</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="8"/>
       <c r="K21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1635,7 +1882,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1658,7 +1905,7 @@
       <c r="H22" s="2">
         <v>66</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="8"/>
       <c r="K22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1935,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1716,7 +1963,7 @@
         <f t="shared" ref="H23" si="32">1-H21/H22</f>
         <v>0.51515151515151514</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -1738,39 +1985,39 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="8">
+      <c r="B24" s="7"/>
+      <c r="C24" s="9">
         <f>1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
         <v>0.64179104477611948</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <f t="shared" ref="D24:H24" si="33">1-(D3+D6+D9+D12+D15+D18+D21)/(D4+D7+D10+D13+D16+D19+D22)</f>
         <v>0.68717948717948718</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="9">
         <f t="shared" si="33"/>
         <v>0.60526315789473684</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="9">
         <f t="shared" si="33"/>
         <v>0.62190812720848054</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="9">
         <f t="shared" si="33"/>
         <v>0.44827586206896552</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="9">
         <f t="shared" si="33"/>
         <v>0.47627416520210897</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="8">
         <f>SUM(C4:H4,C7:H7,C13:H13,C16:H16,C19:H19,C22:H22,C10:H10)</f>
         <v>2079</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="8"/>
       <c r="K24" s="2" t="s">
         <v>12</v>
       </c>
@@ -1790,16 +2037,16 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="2" t="s">
         <v>11</v>
       </c>
@@ -1829,7 +2076,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="8" t="s">
         <v>25</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -1851,7 +2098,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J27" s="7"/>
+      <c r="J27" s="8"/>
       <c r="K27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1871,7 +2118,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J28" s="7"/>
+      <c r="J28" s="8"/>
       <c r="K28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1901,49 +2148,49 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="8">
+      <c r="K29" s="7"/>
+      <c r="L29" s="9">
         <f>1-SUM(L17,L20,L23,L26)/SUM(L18,L21,L24,L27)</f>
         <v>0.6619718309859155</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="9">
         <f t="shared" ref="M29:Q29" si="36">1-SUM(M17,M20,M23,M26)/SUM(M18,M21,M24,M27)</f>
         <v>0.42253521126760563</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="9">
         <f t="shared" si="36"/>
         <v>0.59210526315789469</v>
       </c>
-      <c r="O29" s="8" t="e">
+      <c r="O29" s="9" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="8" t="e">
+      <c r="P29" s="9" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="8">
+      <c r="Q29" s="9">
         <f t="shared" si="36"/>
         <v>0.26436781609195403</v>
       </c>
-      <c r="R29" s="7">
+      <c r="R29" s="8">
         <f>SUM(L18:Q18,L21:Q21,L24:Q24,L27:Q27)</f>
         <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -2034,17 +2281,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B58219-FF6E-4F14-AEAF-2D4CEA1BD871}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" style="1" customWidth="1"/>
@@ -2061,45 +2308,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
@@ -2153,8 +2400,8 @@
       <c r="B3" s="1">
         <v>122</v>
       </c>
-      <c r="C3" s="1">
-        <v>10.3</v>
+      <c r="C3" s="6">
+        <v>45568</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>41</v>
@@ -2179,8 +2426,8 @@
       <c r="B4" s="1">
         <v>128</v>
       </c>
-      <c r="C4" s="1">
-        <v>10.4</v>
+      <c r="C4" s="6">
+        <v>45569</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>42</v>
@@ -2208,8 +2455,8 @@
       <c r="B5" s="1">
         <v>111</v>
       </c>
-      <c r="C5" s="1">
-        <v>10.5</v>
+      <c r="C5" s="6">
+        <v>45570</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>43</v>
@@ -2246,8 +2493,8 @@
       <c r="B6" s="1">
         <v>127</v>
       </c>
-      <c r="C6" s="1">
-        <v>10.6</v>
+      <c r="C6" s="6">
+        <v>45571</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>44</v>
@@ -2278,8 +2525,8 @@
       <c r="B7" s="1">
         <v>118</v>
       </c>
-      <c r="C7" s="1">
-        <v>10.7</v>
+      <c r="C7" s="6">
+        <v>45572</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>45</v>
@@ -2303,13 +2550,316 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="1">
+        <v>133</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45573</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="R8" s="1">
+        <v>4</v>
+      </c>
+      <c r="S8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="1">
+        <v>116</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45574</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="1">
+        <v>120</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45575</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4</v>
+      </c>
+      <c r="S10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45576</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5</v>
+      </c>
+      <c r="S11" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="1">
+        <v>110</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45577</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1">
+        <v>111</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45586</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>12</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>4</v>
+      </c>
+      <c r="R13" s="1">
+        <v>4</v>
+      </c>
+      <c r="S13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="1">
-        <f>AVERAGE(B3:B7)</f>
-        <v>121.2</v>
+      <c r="B20" s="28">
+        <f ca="1">AVERAGE(B3:B22)</f>
+        <v>115</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="28">
+        <f>SUM(E3:E19)</f>
+        <v>54</v>
+      </c>
+      <c r="F20" s="28">
+        <f t="shared" ref="F20:S20" si="0">SUM(F3:F19)</f>
+        <v>24</v>
+      </c>
+      <c r="G20" s="28">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H20" s="28">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J20" s="28">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="L20" s="28">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M20" s="28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N20" s="28">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="O20" s="28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P20" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="28">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="R20" s="28">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="S20" s="28">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1">
+        <v>80</v>
+      </c>
+      <c r="C22" s="6">
+        <v>45585</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1">
+        <v>17</v>
+      </c>
+      <c r="I22" s="1">
+        <v>5</v>
+      </c>
+      <c r="K22" s="1">
+        <v>13</v>
+      </c>
+      <c r="L22" s="1">
+        <v>10</v>
+      </c>
+      <c r="O22" s="1">
+        <v>12</v>
+      </c>
+      <c r="P22" s="1">
+        <v>5</v>
+      </c>
+      <c r="R22" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2326,4 +2876,349 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8872AF1F-349A-4F25-9E9B-8AD2468CC9C7}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A3:B5"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C6:H6 C14:G14 C17:G17 C20:G20 C24:H24 C5:G5 C9:H9 C7:G8 C10:G11 C23:G23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.6"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2705D644-5D20-4FFE-89A0-58CB0DB29E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE8A7AE-62CF-436E-B63C-2273ABAF1E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -314,6 +314,18 @@
   </si>
   <si>
     <t>3h04min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022（自测）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023（自测）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h34min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -519,14 +531,20 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -541,9 +559,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -582,10 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -886,43 +898,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
@@ -935,10 +947,10 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="H2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
@@ -951,10 +963,10 @@
       <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -980,7 +992,7 @@
         <f>29+16</f>
         <v>45</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1002,7 +1014,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1025,7 +1037,7 @@
       <c r="H4" s="2">
         <v>96</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1045,7 +1057,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1073,7 +1085,7 @@
         <f t="shared" si="0"/>
         <v>0.53125</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1103,7 +1115,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1128,7 +1140,7 @@
         <f>8+3+6+37</f>
         <v>54</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1150,7 +1162,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1174,7 +1186,7 @@
         <f>11+14+19+50</f>
         <v>94</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1194,7 +1206,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1222,7 +1234,7 @@
         <f t="shared" si="5"/>
         <v>0.42553191489361697</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1252,7 +1264,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1278,7 +1290,7 @@
         <f>11+19+18+20</f>
         <v>68</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1300,7 +1312,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1324,7 +1336,7 @@
         <f>19+31+40+35</f>
         <v>125</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1344,7 +1356,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1372,7 +1384,7 @@
         <f t="shared" si="7"/>
         <v>0.45599999999999996</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1402,7 +1414,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1426,7 +1438,7 @@
       <c r="H12" s="2">
         <v>43</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1448,7 +1460,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1471,7 +1483,7 @@
       <c r="H13" s="2">
         <v>83</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1491,7 +1503,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1519,7 +1531,7 @@
         <f t="shared" ref="H14" si="13">1-H12/H13</f>
         <v>0.48192771084337349</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1549,7 +1561,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1573,10 +1585,10 @@
       <c r="H15" s="2">
         <v>15</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="9">
         <f>1-SUM(L3,L6,L9,L12)/SUM(L4,L7,L10,L13)</f>
         <v>0.75</v>
@@ -1601,13 +1613,13 @@
         <f t="shared" si="15"/>
         <v>0.30434782608695654</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="10">
         <f>SUM(L4:Q4,L7:Q7,L10:Q10,L13:Q13)</f>
         <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1630,18 +1642,18 @@
       <c r="H16" s="2">
         <v>28</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
-      <c r="R16" s="8"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1669,7 +1681,7 @@
         <f t="shared" si="16"/>
         <v>0.4642857142857143</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1691,7 +1703,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1715,7 +1727,7 @@
       <c r="H18" s="2">
         <v>41</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1735,7 +1747,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1758,7 +1770,7 @@
       <c r="H19" s="2">
         <v>77</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1788,7 +1800,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1816,7 +1828,7 @@
         <f t="shared" ref="H20" si="26">1-H18/H19</f>
         <v>0.46753246753246758</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -1838,7 +1850,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1862,7 +1874,7 @@
       <c r="H21" s="2">
         <v>32</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1882,7 +1894,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1905,7 +1917,7 @@
       <c r="H22" s="2">
         <v>66</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1935,7 +1947,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1963,7 +1975,7 @@
         <f t="shared" ref="H23" si="32">1-H21/H22</f>
         <v>0.51515151515151514</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="10" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -1985,10 +1997,10 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="9">
         <f>1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
         <v>0.64179104477611948</v>
@@ -2013,11 +2025,11 @@
         <f t="shared" si="33"/>
         <v>0.47627416520210897</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="10">
         <f>SUM(C4:H4,C7:H7,C13:H13,C16:H16,C19:H19,C22:H22,C10:H10)</f>
         <v>2079</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="2" t="s">
         <v>12</v>
       </c>
@@ -2037,16 +2049,16 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="2" t="s">
         <v>11</v>
       </c>
@@ -2076,7 +2088,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="10" t="s">
         <v>25</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -2098,7 +2110,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J27" s="8"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="2" t="s">
         <v>12</v>
       </c>
@@ -2118,7 +2130,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J28" s="8"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="2" t="s">
         <v>11</v>
       </c>
@@ -2148,10 +2160,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="7"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="9">
         <f>1-SUM(L17,L20,L23,L26)/SUM(L18,L21,L24,L27)</f>
         <v>0.6619718309859155</v>
@@ -2176,24 +2188,57 @@
         <f t="shared" si="36"/>
         <v>0.26436781609195403</v>
       </c>
-      <c r="R29" s="8">
+      <c r="R29" s="10">
         <f>SUM(L18:Q18,L21:Q21,L24:Q24,L27:Q27)</f>
         <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
-      <c r="R30" s="8"/>
+      <c r="R30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A21:A23"/>
@@ -2210,39 +2255,6 @@
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="O29:O30"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J20:J22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C5:H5 C8:H8 C5:H11 C8:H8 C11:H11 C14:H14 C17:H17 C20:H20 C23:H23 C24:H24">
@@ -2284,7 +2296,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2308,45 +2320,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
     </row>
     <row r="2" spans="1:19" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
@@ -2751,77 +2763,144 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1">
+        <v>96</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45587</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>8</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1">
+        <v>96</v>
+      </c>
+      <c r="C15" s="6">
+        <v>45588</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10</v>
+      </c>
+      <c r="N15" s="1">
+        <v>10</v>
+      </c>
+      <c r="O15" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>9</v>
+      </c>
+      <c r="R15" s="1">
+        <v>5</v>
+      </c>
+      <c r="S15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="7">
         <f ca="1">AVERAGE(B3:B22)</f>
         <v>115</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="7">
         <f>SUM(E3:E19)</f>
-        <v>54</v>
-      </c>
-      <c r="F20" s="28">
+        <v>58</v>
+      </c>
+      <c r="F20" s="7">
         <f t="shared" ref="F20:S20" si="0">SUM(F3:F19)</f>
         <v>24</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I20" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H20" s="28">
+      <c r="J20" s="7">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I20" s="28">
+        <v>53</v>
+      </c>
+      <c r="K20" s="7">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="J20" s="28">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="K20" s="28">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="L20" s="28">
+        <v>42</v>
+      </c>
+      <c r="L20" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="7">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="O20" s="28">
+        <v>40</v>
+      </c>
+      <c r="O20" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="P20" s="28">
+        <v>26</v>
+      </c>
+      <c r="P20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="28">
+      <c r="Q20" s="7">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="R20" s="28">
+        <v>43</v>
+      </c>
+      <c r="R20" s="7">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="S20" s="28">
+        <v>23</v>
+      </c>
+      <c r="S20" s="7">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2882,7 +2961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8872AF1F-349A-4F25-9E9B-8AD2468CC9C7}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -2892,27 +2971,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2925,243 +3004,243 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="15"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="15"/>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="14"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -3170,8 +3249,8 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -3181,11 +3260,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -3202,11 +3281,11 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6:H6 C14:G14 C17:G17 C20:G20 C24:H24 C5:G5 C9:H9 C7:G8 C10:G11 C23:G23">

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE8A7AE-62CF-436E-B63C-2273ABAF1E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490F3C45-FDBB-426A-94C7-8EE148BFFF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="练习册" sheetId="2" r:id="rId1"/>
@@ -285,47 +285,49 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>18.2 18.7 18.11 
+18.22 18.24 18.25 18.27 18.29 18.34 18.36 18.39 18.40
+18.43 18.44 18.49 18.50 18.52 18.55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张八（1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h17min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021（自测）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h04min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022（自测）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023（自测）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h34min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>8.3 8.4 8.9 9.5 9.6
 9.7 9.8 9.11 9.15
 9.16 9.17 9.19 9.21
 9.22 9.23 10.8
 10.18 10.23 10.25
 10.29 10.30 10.40
-11.3 11.7 11.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18.2 18.7 18.11 
-18.22 18.24 18.25 18.27 18.29 18.34 18.36 18.39 18.40
-18.43 18.44 18.49 18.50 18.52 18.55</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张八（1）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4h17min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021（自测）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3h04min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022（自测）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023（自测）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3h34min</t>
+11.3 11.7 11.8 11.9
+11.15 11.16 11.17 
+11.19 11.20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2295,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B58219-FF6E-4F14-AEAF-2D4CEA1BD871}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2730,7 +2732,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1">
         <v>111</v>
@@ -2739,7 +2741,7 @@
         <v>45586</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
@@ -2765,7 +2767,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1">
         <v>96</v>
@@ -2797,7 +2799,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1">
         <v>96</v>
@@ -2806,7 +2808,7 @@
         <v>45588</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1">
         <v>4</v>
@@ -2835,8 +2837,8 @@
         <v>46</v>
       </c>
       <c r="B20" s="7">
-        <f ca="1">AVERAGE(B3:B22)</f>
-        <v>115</v>
+        <f>AVERAGE(B3:B15)</f>
+        <v>114.46153846153847</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="7" t="s">
@@ -2905,7 +2907,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1">
         <v>80</v>
@@ -2914,7 +2916,7 @@
         <v>45585</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1">
         <v>8</v>
@@ -2961,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8872AF1F-349A-4F25-9E9B-8AD2468CC9C7}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3085,7 +3087,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="14" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3098,7 +3100,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="3"/>
@@ -3215,7 +3217,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490F3C45-FDBB-426A-94C7-8EE148BFFF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E95C75D-E851-4CC0-AC59-7E03DEB9FB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="练习册" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="66">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -328,6 +328,14 @@
 11.3 11.7 11.8 11.9
 11.15 11.16 11.17 
 11.19 11.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024（自测）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h00min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -539,14 +547,14 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,6 +569,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -597,9 +608,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,7 +976,7 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -994,7 +1002,7 @@
         <f>29+16</f>
         <v>45</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1117,7 +1125,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1142,7 +1150,7 @@
         <f>8+3+6+37</f>
         <v>54</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1266,7 +1274,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1292,7 +1300,7 @@
         <f>11+19+18+20</f>
         <v>68</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1338,7 +1346,7 @@
         <f>19+31+40+35</f>
         <v>125</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1386,7 +1394,7 @@
         <f t="shared" si="7"/>
         <v>0.45599999999999996</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1416,7 +1424,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1440,7 +1448,7 @@
       <c r="H12" s="2">
         <v>43</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1587,31 +1595,31 @@
       <c r="H15" s="2">
         <v>15</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="9">
+      <c r="K15" s="9"/>
+      <c r="L15" s="11">
         <f>1-SUM(L3,L6,L9,L12)/SUM(L4,L7,L10,L13)</f>
         <v>0.75</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="11">
         <f t="shared" ref="M15:Q15" si="15">1-SUM(M3,M6,M9,M12)/SUM(M4,M7,M10,M13)</f>
         <v>0.70270270270270263</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="11">
         <f t="shared" si="15"/>
         <v>0.66917293233082709</v>
       </c>
-      <c r="O15" s="9" t="e">
+      <c r="O15" s="11" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P15" s="9" t="e">
+      <c r="P15" s="11" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="11">
         <f t="shared" si="15"/>
         <v>0.30434782608695654</v>
       </c>
@@ -1644,14 +1652,14 @@
       <c r="H16" s="2">
         <v>28</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1683,7 +1691,7 @@
         <f t="shared" si="16"/>
         <v>0.4642857142857143</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1830,7 +1838,7 @@
         <f t="shared" ref="H20" si="26">1-H18/H19</f>
         <v>0.46753246753246758</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -1999,31 +2007,31 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9">
+      <c r="B24" s="9"/>
+      <c r="C24" s="11">
         <f>1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
         <v>0.64179104477611948</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="11">
         <f t="shared" ref="D24:H24" si="33">1-(D3+D6+D9+D12+D15+D18+D21)/(D4+D7+D10+D13+D16+D19+D22)</f>
         <v>0.68717948717948718</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="11">
         <f t="shared" si="33"/>
         <v>0.60526315789473684</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="11">
         <f t="shared" si="33"/>
         <v>0.62190812720848054</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="11">
         <f t="shared" si="33"/>
         <v>0.44827586206896552</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="11">
         <f t="shared" si="33"/>
         <v>0.47627416520210897</v>
       </c>
@@ -2051,14 +2059,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="2" t="s">
@@ -2162,31 +2170,31 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="9">
+      <c r="K29" s="9"/>
+      <c r="L29" s="11">
         <f>1-SUM(L17,L20,L23,L26)/SUM(L18,L21,L24,L27)</f>
         <v>0.6619718309859155</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="11">
         <f t="shared" ref="M29:Q29" si="36">1-SUM(M17,M20,M23,M26)/SUM(M18,M21,M24,M27)</f>
         <v>0.42253521126760563</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="11">
         <f t="shared" si="36"/>
         <v>0.59210526315789469</v>
       </c>
-      <c r="O29" s="9" t="e">
+      <c r="O29" s="11" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="9" t="e">
+      <c r="P29" s="11" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="11">
         <f t="shared" si="36"/>
         <v>0.26436781609195403</v>
       </c>
@@ -2196,51 +2204,18 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
       <c r="R30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A21:A23"/>
@@ -2257,6 +2232,39 @@
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="O29:O30"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J20:J22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C5:H5 C8:H8 C5:H11 C8:H8 C11:H11 C14:H14 C17:H17 C20:H20 C23:H23 C24:H24">
@@ -2297,8 +2305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B58219-FF6E-4F14-AEAF-2D4CEA1BD871}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2832,13 +2840,48 @@
         <v>10</v>
       </c>
     </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1">
+        <v>112</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45591</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1">
+        <v>12</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>5</v>
+      </c>
+      <c r="R16" s="1">
+        <v>5</v>
+      </c>
+      <c r="S16" s="1">
+        <v>3</v>
+      </c>
+    </row>
     <row r="20" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="7">
-        <f>AVERAGE(B3:B15)</f>
-        <v>114.46153846153847</v>
+        <f>AVERAGE(B3:B16)</f>
+        <v>114.28571428571429</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="7" t="s">
@@ -2846,11 +2889,11 @@
       </c>
       <c r="E20" s="7">
         <f>SUM(E3:E19)</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" ref="F20:S20" si="0">SUM(F3:F19)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
@@ -2870,7 +2913,7 @@
       </c>
       <c r="K20" s="7">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" si="0"/>
@@ -2882,11 +2925,11 @@
       </c>
       <c r="N20" s="7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O20" s="7">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P20" s="7">
         <f t="shared" si="0"/>
@@ -2898,11 +2941,11 @@
       </c>
       <c r="R20" s="7">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S20" s="7">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2963,7 +3006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8872AF1F-349A-4F25-9E9B-8AD2468CC9C7}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -3009,10 +3052,10 @@
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3023,8 +3066,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3033,8 +3076,8 @@
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3043,10 +3086,10 @@
       <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3057,8 +3100,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3067,8 +3110,8 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3077,10 +3120,10 @@
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3091,8 +3134,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3101,8 +3144,8 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3111,20 +3154,20 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="29"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3133,8 +3176,8 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -3143,20 +3186,20 @@
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="29"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3165,8 +3208,8 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -3175,20 +3218,20 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="29"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3197,8 +3240,8 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -3207,10 +3250,10 @@
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3221,8 +3264,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -3231,8 +3274,8 @@
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -3241,32 +3284,32 @@
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -3283,11 +3326,11 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6:H6 C14:G14 C17:G17 C20:G20 C24:H24 C5:G5 C9:H9 C7:G8 C10:G11 C23:G23">

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E95C75D-E851-4CC0-AC59-7E03DEB9FB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FF8F6F-3DC0-42A6-8056-571F23EFDAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="67">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -336,6 +336,10 @@
   </si>
   <si>
     <t>3h00min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h14min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -547,14 +551,14 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -569,9 +573,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -608,6 +609,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,7 +980,7 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1002,7 +1006,7 @@
         <f>29+16</f>
         <v>45</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1125,7 +1129,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1150,7 +1154,7 @@
         <f>8+3+6+37</f>
         <v>54</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1274,7 +1278,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1300,7 +1304,7 @@
         <f>11+19+18+20</f>
         <v>68</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1346,7 +1350,7 @@
         <f>19+31+40+35</f>
         <v>125</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1394,7 +1398,7 @@
         <f t="shared" si="7"/>
         <v>0.45599999999999996</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1424,7 +1428,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1448,7 +1452,7 @@
       <c r="H12" s="2">
         <v>43</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1595,31 +1599,31 @@
       <c r="H15" s="2">
         <v>15</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="11">
+      <c r="K15" s="11"/>
+      <c r="L15" s="9">
         <f>1-SUM(L3,L6,L9,L12)/SUM(L4,L7,L10,L13)</f>
         <v>0.75</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="9">
         <f t="shared" ref="M15:Q15" si="15">1-SUM(M3,M6,M9,M12)/SUM(M4,M7,M10,M13)</f>
         <v>0.70270270270270263</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="9">
         <f t="shared" si="15"/>
         <v>0.66917293233082709</v>
       </c>
-      <c r="O15" s="11" t="e">
+      <c r="O15" s="9" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P15" s="11" t="e">
+      <c r="P15" s="9" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="9">
         <f t="shared" si="15"/>
         <v>0.30434782608695654</v>
       </c>
@@ -1652,14 +1656,14 @@
       <c r="H16" s="2">
         <v>28</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1691,7 +1695,7 @@
         <f t="shared" si="16"/>
         <v>0.4642857142857143</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1838,7 +1842,7 @@
         <f t="shared" ref="H20" si="26">1-H18/H19</f>
         <v>0.46753246753246758</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -2007,31 +2011,31 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11">
+      <c r="B24" s="11"/>
+      <c r="C24" s="9">
         <f>1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
         <v>0.64179104477611948</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <f t="shared" ref="D24:H24" si="33">1-(D3+D6+D9+D12+D15+D18+D21)/(D4+D7+D10+D13+D16+D19+D22)</f>
         <v>0.68717948717948718</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <f t="shared" si="33"/>
         <v>0.60526315789473684</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <f t="shared" si="33"/>
         <v>0.62190812720848054</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="9">
         <f t="shared" si="33"/>
         <v>0.44827586206896552</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <f t="shared" si="33"/>
         <v>0.47627416520210897</v>
       </c>
@@ -2059,14 +2063,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="2" t="s">
@@ -2170,31 +2174,31 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="11">
+      <c r="K29" s="11"/>
+      <c r="L29" s="9">
         <f>1-SUM(L17,L20,L23,L26)/SUM(L18,L21,L24,L27)</f>
         <v>0.6619718309859155</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="9">
         <f t="shared" ref="M29:Q29" si="36">1-SUM(M17,M20,M23,M26)/SUM(M18,M21,M24,M27)</f>
         <v>0.42253521126760563</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="9">
         <f t="shared" si="36"/>
         <v>0.59210526315789469</v>
       </c>
-      <c r="O29" s="11" t="e">
+      <c r="O29" s="9" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="11" t="e">
+      <c r="P29" s="9" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="9">
         <f t="shared" si="36"/>
         <v>0.26436781609195403</v>
       </c>
@@ -2204,18 +2208,51 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A21:A23"/>
@@ -2232,39 +2269,6 @@
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="O29:O30"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J20:J22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C5:H5 C8:H8 C5:H11 C8:H8 C11:H11 C14:H14 C17:H17 C20:H20 C23:H23 C24:H24">
@@ -2306,7 +2310,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2875,13 +2879,36 @@
         <v>3</v>
       </c>
     </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B17" s="1">
+        <v>133</v>
+      </c>
+      <c r="C17" s="6">
+        <v>45595</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="1">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4</v>
+      </c>
+      <c r="R17" s="1">
+        <v>4</v>
+      </c>
+    </row>
     <row r="20" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="7">
-        <f>AVERAGE(B3:B16)</f>
-        <v>114.28571428571429</v>
+        <f>AVERAGE(B3:B17)</f>
+        <v>115.53333333333333</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="7" t="s">
@@ -2897,11 +2924,11 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="0"/>
@@ -2941,7 +2968,7 @@
       </c>
       <c r="R20" s="7">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="S20" s="7">
         <f t="shared" si="0"/>
@@ -3052,10 +3079,10 @@
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3066,8 +3093,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3076,8 +3103,8 @@
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3086,10 +3113,10 @@
       <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3100,8 +3127,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3110,8 +3137,8 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3120,10 +3147,10 @@
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3134,8 +3161,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3144,8 +3171,8 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3154,20 +3181,20 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3176,8 +3203,8 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -3186,20 +3213,20 @@
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="17"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3208,8 +3235,8 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -3218,20 +3245,20 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3240,8 +3267,8 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -3250,10 +3277,10 @@
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3264,8 +3291,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -3274,8 +3301,8 @@
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -3284,32 +3311,32 @@
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -3326,11 +3353,11 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6:H6 C14:G14 C17:G17 C20:G20 C24:H24 C5:G5 C9:H9 C7:G8 C10:G11 C23:G23">

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FF8F6F-3DC0-42A6-8056-571F23EFDAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7943FC02-CDD9-4073-850D-B8D78F7E5CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -340,6 +340,10 @@
   </si>
   <si>
     <t>2h14min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h23mn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -551,14 +555,14 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -573,6 +577,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -609,9 +616,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,7 +984,7 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1006,7 +1010,7 @@
         <f>29+16</f>
         <v>45</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1129,7 +1133,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1154,7 +1158,7 @@
         <f>8+3+6+37</f>
         <v>54</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1278,7 +1282,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1304,7 +1308,7 @@
         <f>11+19+18+20</f>
         <v>68</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1350,7 +1354,7 @@
         <f>19+31+40+35</f>
         <v>125</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1398,7 +1402,7 @@
         <f t="shared" si="7"/>
         <v>0.45599999999999996</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1428,7 +1432,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1452,7 +1456,7 @@
       <c r="H12" s="2">
         <v>43</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1599,31 +1603,31 @@
       <c r="H15" s="2">
         <v>15</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="9">
+      <c r="K15" s="9"/>
+      <c r="L15" s="11">
         <f>1-SUM(L3,L6,L9,L12)/SUM(L4,L7,L10,L13)</f>
         <v>0.75</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="11">
         <f t="shared" ref="M15:Q15" si="15">1-SUM(M3,M6,M9,M12)/SUM(M4,M7,M10,M13)</f>
         <v>0.70270270270270263</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="11">
         <f t="shared" si="15"/>
         <v>0.66917293233082709</v>
       </c>
-      <c r="O15" s="9" t="e">
+      <c r="O15" s="11" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P15" s="9" t="e">
+      <c r="P15" s="11" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="11">
         <f t="shared" si="15"/>
         <v>0.30434782608695654</v>
       </c>
@@ -1656,14 +1660,14 @@
       <c r="H16" s="2">
         <v>28</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1695,7 +1699,7 @@
         <f t="shared" si="16"/>
         <v>0.4642857142857143</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1842,7 +1846,7 @@
         <f t="shared" ref="H20" si="26">1-H18/H19</f>
         <v>0.46753246753246758</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -2011,31 +2015,31 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9">
+      <c r="B24" s="9"/>
+      <c r="C24" s="11">
         <f>1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
         <v>0.64179104477611948</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="11">
         <f t="shared" ref="D24:H24" si="33">1-(D3+D6+D9+D12+D15+D18+D21)/(D4+D7+D10+D13+D16+D19+D22)</f>
         <v>0.68717948717948718</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="11">
         <f t="shared" si="33"/>
         <v>0.60526315789473684</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="11">
         <f t="shared" si="33"/>
         <v>0.62190812720848054</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="11">
         <f t="shared" si="33"/>
         <v>0.44827586206896552</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="11">
         <f t="shared" si="33"/>
         <v>0.47627416520210897</v>
       </c>
@@ -2063,14 +2067,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="2" t="s">
@@ -2174,31 +2178,31 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="9">
+      <c r="K29" s="9"/>
+      <c r="L29" s="11">
         <f>1-SUM(L17,L20,L23,L26)/SUM(L18,L21,L24,L27)</f>
         <v>0.6619718309859155</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="11">
         <f t="shared" ref="M29:Q29" si="36">1-SUM(M17,M20,M23,M26)/SUM(M18,M21,M24,M27)</f>
         <v>0.42253521126760563</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="11">
         <f t="shared" si="36"/>
         <v>0.59210526315789469</v>
       </c>
-      <c r="O29" s="9" t="e">
+      <c r="O29" s="11" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="9" t="e">
+      <c r="P29" s="11" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="11">
         <f t="shared" si="36"/>
         <v>0.26436781609195403</v>
       </c>
@@ -2208,51 +2212,18 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
       <c r="R30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A21:A23"/>
@@ -2269,6 +2240,39 @@
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="O29:O30"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J20:J22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C5:H5 C8:H8 C5:H11 C8:H8 C11:H11 C14:H14 C17:H17 C20:H20 C23:H23 C24:H24">
@@ -2310,7 +2314,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2902,13 +2906,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B18" s="1">
+        <v>120</v>
+      </c>
+      <c r="C18" s="6">
+        <v>45597</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>11</v>
+      </c>
+      <c r="S18" s="1">
+        <v>4</v>
+      </c>
+    </row>
     <row r="20" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="7">
-        <f>AVERAGE(B3:B17)</f>
-        <v>115.53333333333333</v>
+        <f>AVERAGE(B3:B18)</f>
+        <v>115.8125</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="7" t="s">
@@ -2916,11 +2946,11 @@
       </c>
       <c r="E20" s="7">
         <f>SUM(E3:E19)</f>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" ref="F20:S20" si="0">SUM(F3:F19)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
@@ -2964,7 +2994,7 @@
       </c>
       <c r="Q20" s="7">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="R20" s="7">
         <f t="shared" si="0"/>
@@ -2972,7 +3002,7 @@
       </c>
       <c r="S20" s="7">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -3079,10 +3109,10 @@
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3093,8 +3123,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3103,8 +3133,8 @@
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3113,10 +3143,10 @@
       <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3127,8 +3157,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3137,8 +3167,8 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3147,10 +3177,10 @@
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3161,8 +3191,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3171,8 +3201,8 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3181,20 +3211,20 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="29"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3203,8 +3233,8 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -3213,20 +3243,20 @@
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="29"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3235,8 +3265,8 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -3245,20 +3275,20 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="29"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3267,8 +3297,8 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -3277,10 +3307,10 @@
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3291,8 +3321,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -3301,8 +3331,8 @@
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -3311,32 +3341,32 @@
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -3353,11 +3383,11 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6:H6 C14:G14 C17:G17 C20:G20 C24:H24 C5:G5 C9:H9 C7:G8 C10:G11 C23:G23">

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7943FC02-CDD9-4073-850D-B8D78F7E5CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95A1E9E-6929-416C-9C83-34B40B110F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -344,6 +344,42 @@
   </si>
   <si>
     <t>2h23mn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芳三（1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h00min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芳三（2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h00mn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芳三（3）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h30min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张八（2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧几里得（1）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -555,14 +591,14 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,9 +613,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -616,6 +649,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,7 +1020,7 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1010,7 +1046,7 @@
         <f>29+16</f>
         <v>45</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1133,7 +1169,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1158,7 +1194,7 @@
         <f>8+3+6+37</f>
         <v>54</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1282,7 +1318,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1308,7 +1344,7 @@
         <f>11+19+18+20</f>
         <v>68</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1354,7 +1390,7 @@
         <f>19+31+40+35</f>
         <v>125</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1402,7 +1438,7 @@
         <f t="shared" si="7"/>
         <v>0.45599999999999996</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1432,7 +1468,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1456,7 +1492,7 @@
       <c r="H12" s="2">
         <v>43</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1603,31 +1639,31 @@
       <c r="H15" s="2">
         <v>15</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="11">
+      <c r="K15" s="11"/>
+      <c r="L15" s="9">
         <f>1-SUM(L3,L6,L9,L12)/SUM(L4,L7,L10,L13)</f>
         <v>0.75</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="9">
         <f t="shared" ref="M15:Q15" si="15">1-SUM(M3,M6,M9,M12)/SUM(M4,M7,M10,M13)</f>
         <v>0.70270270270270263</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="9">
         <f t="shared" si="15"/>
         <v>0.66917293233082709</v>
       </c>
-      <c r="O15" s="11" t="e">
+      <c r="O15" s="9" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P15" s="11" t="e">
+      <c r="P15" s="9" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="9">
         <f t="shared" si="15"/>
         <v>0.30434782608695654</v>
       </c>
@@ -1660,14 +1696,14 @@
       <c r="H16" s="2">
         <v>28</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1699,7 +1735,7 @@
         <f t="shared" si="16"/>
         <v>0.4642857142857143</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1846,7 +1882,7 @@
         <f t="shared" ref="H20" si="26">1-H18/H19</f>
         <v>0.46753246753246758</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -2015,31 +2051,31 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11">
+      <c r="B24" s="11"/>
+      <c r="C24" s="9">
         <f>1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
         <v>0.64179104477611948</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <f t="shared" ref="D24:H24" si="33">1-(D3+D6+D9+D12+D15+D18+D21)/(D4+D7+D10+D13+D16+D19+D22)</f>
         <v>0.68717948717948718</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <f t="shared" si="33"/>
         <v>0.60526315789473684</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <f t="shared" si="33"/>
         <v>0.62190812720848054</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="9">
         <f t="shared" si="33"/>
         <v>0.44827586206896552</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <f t="shared" si="33"/>
         <v>0.47627416520210897</v>
       </c>
@@ -2067,14 +2103,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="2" t="s">
@@ -2178,31 +2214,31 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="11">
+      <c r="K29" s="11"/>
+      <c r="L29" s="9">
         <f>1-SUM(L17,L20,L23,L26)/SUM(L18,L21,L24,L27)</f>
         <v>0.6619718309859155</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="9">
         <f t="shared" ref="M29:Q29" si="36">1-SUM(M17,M20,M23,M26)/SUM(M18,M21,M24,M27)</f>
         <v>0.42253521126760563</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="9">
         <f t="shared" si="36"/>
         <v>0.59210526315789469</v>
       </c>
-      <c r="O29" s="11" t="e">
+      <c r="O29" s="9" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="11" t="e">
+      <c r="P29" s="9" t="e">
         <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="9">
         <f t="shared" si="36"/>
         <v>0.26436781609195403</v>
       </c>
@@ -2212,18 +2248,51 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A21:A23"/>
@@ -2240,39 +2309,6 @@
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="O29:O30"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J20:J22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C5:H5 C8:H8 C5:H11 C8:H8 C11:H11 C14:H14 C17:H17 C20:H20 C23:H23 C24:H24">
@@ -2311,10 +2347,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B58219-FF6E-4F14-AEAF-2D4CEA1BD871}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3041,6 +3077,181 @@
       </c>
       <c r="R22" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="1">
+        <v>103</v>
+      </c>
+      <c r="C23" s="6">
+        <v>45599</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="1">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5</v>
+      </c>
+      <c r="O23" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>6</v>
+      </c>
+      <c r="R23" s="1">
+        <v>6</v>
+      </c>
+      <c r="S23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1">
+        <v>77</v>
+      </c>
+      <c r="C24" s="6">
+        <v>45601</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5</v>
+      </c>
+      <c r="J24" s="1">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1">
+        <v>9</v>
+      </c>
+      <c r="N24" s="1">
+        <v>4</v>
+      </c>
+      <c r="O24" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>5</v>
+      </c>
+      <c r="R24" s="1">
+        <v>5</v>
+      </c>
+      <c r="S24" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1">
+        <v>58</v>
+      </c>
+      <c r="C25" s="6">
+        <v>45602</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="1">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1">
+        <v>5</v>
+      </c>
+      <c r="K25" s="1">
+        <v>17</v>
+      </c>
+      <c r="L25" s="1">
+        <v>15</v>
+      </c>
+      <c r="N25" s="1">
+        <v>5</v>
+      </c>
+      <c r="P25" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="1">
+        <v>67</v>
+      </c>
+      <c r="C26" s="6">
+        <v>45603</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1">
+        <v>61</v>
+      </c>
+      <c r="C27" s="6">
+        <v>45603</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="1">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>9</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5</v>
+      </c>
+      <c r="M27" s="1">
+        <v>5</v>
+      </c>
+      <c r="O27" s="1">
+        <v>12</v>
+      </c>
+      <c r="R27" s="1">
+        <v>10</v>
+      </c>
+      <c r="S27" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3109,10 +3320,10 @@
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3123,8 +3334,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3133,8 +3344,8 @@
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3143,10 +3354,10 @@
       <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3157,8 +3368,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3167,8 +3378,8 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3177,10 +3388,10 @@
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -3191,8 +3402,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3201,8 +3412,8 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3211,20 +3422,20 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3233,8 +3444,8 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -3243,20 +3454,20 @@
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="17"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -3265,8 +3476,8 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -3275,20 +3486,20 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3297,8 +3508,8 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -3307,10 +3518,10 @@
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -3321,8 +3532,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -3331,8 +3542,8 @@
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -3341,32 +3552,32 @@
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -3383,11 +3594,11 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6:H6 C14:G14 C17:G17 C20:G20 C24:H24 C5:G5 C9:H9 C7:G8 C10:G11 C23:G23">

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95A1E9E-6929-416C-9C83-34B40B110F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB06D82A-1FDC-4A86-BEB3-2319B85CA791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">练习册!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -379,7 +380,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>欧几里得（1）</t>
+    <t>欧几里得（2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧几里得（3）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24共创（1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h06min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1116,11 +1133,11 @@
         <v>11</v>
       </c>
       <c r="C5" s="3">
-        <f>1-C3/C4</f>
+        <f t="shared" ref="C5:H5" si="0">1-C3/C4</f>
         <v>0.72151898734177222</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:H5" si="0">1-D3/D4</f>
+        <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="E5" s="3">
@@ -1144,27 +1161,27 @@
         <v>11</v>
       </c>
       <c r="L5" s="3">
-        <f>1-L3/L4</f>
+        <f t="shared" ref="L5:Q5" si="1">1-L3/L4</f>
         <v>0.74</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" ref="M5" si="1">1-M3/M4</f>
+        <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" ref="N5" si="2">1-N3/N4</f>
+        <f t="shared" si="1"/>
         <v>0.47826086956521741</v>
       </c>
       <c r="O5" s="3" t="e">
-        <f t="shared" ref="O5" si="3">1-O3/O4</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P5" s="3" t="e">
-        <f t="shared" ref="P5" si="4">1-P3/P4</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q5" s="3">
-        <f>1-Q3/Q4</f>
+        <f t="shared" si="1"/>
         <v>0.15789473684210531</v>
       </c>
     </row>
@@ -1265,27 +1282,27 @@
         <v>11</v>
       </c>
       <c r="C8" s="3">
-        <f>1-C6/C7</f>
+        <f t="shared" ref="C8:H8" si="2">1-C6/C7</f>
         <v>0.54166666666666674</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:H8" si="5">1-D6/D7</f>
+        <f t="shared" si="2"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.7583333333333333</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.63793103448275867</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.42222222222222228</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.42553191489361697</v>
       </c>
       <c r="J8" s="10"/>
@@ -1293,27 +1310,27 @@
         <v>11</v>
       </c>
       <c r="L8" s="3">
-        <f>1-L6/L7</f>
+        <f t="shared" ref="L8:Q8" si="3">1-L6/L7</f>
         <v>0.6</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" ref="M8:P8" si="6">1-M6/M7</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O8" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P8" s="3" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q8" s="3">
-        <f>1-Q6/Q7</f>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
@@ -1415,27 +1432,27 @@
         <v>11</v>
       </c>
       <c r="C11" s="3">
-        <f>1-C9/C10</f>
+        <f t="shared" ref="C11:H11" si="4">1-C9/C10</f>
         <v>0.61538461538461542</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" ref="D11:H11" si="7">1-D9/D10</f>
+        <f t="shared" si="4"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.56363636363636371</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.51428571428571423</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.45599999999999996</v>
       </c>
       <c r="J11" s="11"/>
@@ -1443,27 +1460,27 @@
         <v>11</v>
       </c>
       <c r="L11" s="3">
-        <f>1-L9/L10</f>
+        <f t="shared" ref="L11:Q11" si="5">1-L9/L10</f>
         <v>0.83720930232558133</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" ref="M11:P11" si="8">1-M9/M10</f>
+        <f t="shared" si="5"/>
         <v>0.79166666666666663</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.5625</v>
       </c>
       <c r="O11" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P11" s="3" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q11" s="3">
-        <f>1-Q9/Q10</f>
+        <f t="shared" si="5"/>
         <v>0.33333333333333337</v>
       </c>
     </row>
@@ -1562,27 +1579,27 @@
         <v>11</v>
       </c>
       <c r="C14" s="3">
-        <f>1-C12/C13</f>
+        <f t="shared" ref="C14:H14" si="6">1-C12/C13</f>
         <v>0.75</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14" si="9">1-D12/D13</f>
+        <f t="shared" si="6"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" ref="E14" si="10">1-E12/E13</f>
+        <f t="shared" si="6"/>
         <v>0.47169811320754718</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" ref="F14" si="11">1-F12/F13</f>
+        <f t="shared" si="6"/>
         <v>0.640625</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" ref="G14" si="12">1-G12/G13</f>
+        <f t="shared" si="6"/>
         <v>0.51351351351351349</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" ref="H14" si="13">1-H12/H13</f>
+        <f t="shared" si="6"/>
         <v>0.48192771084337349</v>
       </c>
       <c r="J14" s="10"/>
@@ -1590,27 +1607,27 @@
         <v>11</v>
       </c>
       <c r="L14" s="3">
-        <f>1-L12/L13</f>
+        <f t="shared" ref="L14:Q14" si="7">1-L12/L13</f>
         <v>0.70270270270270263</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" ref="M14:P14" si="14">1-M12/M13</f>
+        <f t="shared" si="7"/>
         <v>0.62962962962962965</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0.7191011235955056</v>
       </c>
       <c r="O14" s="3" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P14" s="3" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q14" s="3">
-        <f>1-Q12/Q13</f>
+        <f t="shared" si="7"/>
         <v>0.47058823529411764</v>
       </c>
     </row>
@@ -1644,27 +1661,27 @@
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="9">
-        <f>1-SUM(L3,L6,L9,L12)/SUM(L4,L7,L10,L13)</f>
+        <f t="shared" ref="L15:Q15" si="8">1-SUM(L3,L6,L9,L12)/SUM(L4,L7,L10,L13)</f>
         <v>0.75</v>
       </c>
       <c r="M15" s="9">
-        <f t="shared" ref="M15:Q15" si="15">1-SUM(M3,M6,M9,M12)/SUM(M4,M7,M10,M13)</f>
+        <f t="shared" si="8"/>
         <v>0.70270270270270263</v>
       </c>
       <c r="N15" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0.66917293233082709</v>
       </c>
       <c r="O15" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P15" s="9" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q15" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="R15" s="10">
@@ -1712,27 +1729,27 @@
         <v>11</v>
       </c>
       <c r="C17" s="3">
-        <f>1-C15/C16</f>
+        <f t="shared" ref="C17:H17" si="9">1-C15/C16</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" ref="D17:H17" si="16">1-D15/D16</f>
+        <f t="shared" si="9"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0.6607142857142857</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0.65625</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0.34782608695652173</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>0.4642857142857143</v>
       </c>
       <c r="J17" s="11" t="s">
@@ -1829,27 +1846,27 @@
         <v>11</v>
       </c>
       <c r="L19" s="3">
-        <f>1-L17/L18</f>
+        <f t="shared" ref="L19:Q19" si="10">1-L17/L18</f>
         <v>0.66666666666666674</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" ref="M19" si="17">1-M17/M18</f>
+        <f t="shared" si="10"/>
         <v>0.6</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" ref="N19" si="18">1-N17/N18</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O19" s="3" t="e">
-        <f t="shared" ref="O19" si="19">1-O17/O18</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" s="3" t="e">
-        <f t="shared" ref="P19" si="20">1-P17/P18</f>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" ref="Q19" si="21">1-Q17/Q18</f>
+        <f t="shared" si="10"/>
         <v>0.22727272727272729</v>
       </c>
     </row>
@@ -1859,27 +1876,27 @@
         <v>11</v>
       </c>
       <c r="C20" s="3">
-        <f>1-C18/C19</f>
+        <f t="shared" ref="C20:H20" si="11">1-C18/C19</f>
         <v>0.45454545454545459</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" ref="D20" si="22">1-D18/D19</f>
+        <f t="shared" si="11"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" ref="E20" si="23">1-E18/E19</f>
+        <f t="shared" si="11"/>
         <v>0.59090909090909083</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" ref="F20" si="24">1-F18/F19</f>
+        <f t="shared" si="11"/>
         <v>0.53846153846153844</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" ref="G20" si="25">1-G18/G19</f>
+        <f t="shared" si="11"/>
         <v>0.45454545454545459</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" ref="H20" si="26">1-H18/H19</f>
+        <f t="shared" si="11"/>
         <v>0.46753246753246758</v>
       </c>
       <c r="J20" s="11" t="s">
@@ -1976,27 +1993,27 @@
         <v>11</v>
       </c>
       <c r="L22" s="3">
-        <f>1-L20/L21</f>
+        <f t="shared" ref="L22:Q22" si="12">1-L20/L21</f>
         <v>0.76470588235294112</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" ref="M22:Q22" si="27">1-M20/M21</f>
+        <f t="shared" si="12"/>
         <v>0.59090909090909083</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0.61904761904761907</v>
       </c>
       <c r="O22" s="3" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" s="3" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="12"/>
         <v>0.3125</v>
       </c>
     </row>
@@ -2006,27 +2023,27 @@
         <v>11</v>
       </c>
       <c r="C23" s="3">
-        <f>1-C21/C22</f>
+        <f t="shared" ref="C23:H23" si="13">1-C21/C22</f>
         <v>0.58333333333333326</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" ref="D23" si="28">1-D21/D22</f>
+        <f t="shared" si="13"/>
         <v>0.70967741935483875</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" ref="E23" si="29">1-E21/E22</f>
+        <f t="shared" si="13"/>
         <v>0.38888888888888884</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" ref="F23" si="30">1-F21/F22</f>
+        <f t="shared" si="13"/>
         <v>0.72972972972972971</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" ref="G23" si="31">1-G21/G22</f>
+        <f t="shared" si="13"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" ref="H23" si="32">1-H21/H22</f>
+        <f t="shared" si="13"/>
         <v>0.51515151515151514</v>
       </c>
       <c r="J23" s="10" t="s">
@@ -2056,27 +2073,27 @@
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="9">
-        <f>1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
+        <f t="shared" ref="C24:H24" si="14">1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
         <v>0.64179104477611948</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" ref="D24:H24" si="33">1-(D3+D6+D9+D12+D15+D18+D21)/(D4+D7+D10+D13+D16+D19+D22)</f>
+        <f t="shared" si="14"/>
         <v>0.68717948717948718</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>0.60526315789473684</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>0.62190812720848054</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>0.44827586206896552</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="14"/>
         <v>0.47627416520210897</v>
       </c>
       <c r="I24" s="10">
@@ -2117,27 +2134,27 @@
         <v>11</v>
       </c>
       <c r="L25" s="3">
-        <f>1-L23/L24</f>
+        <f t="shared" ref="L25:Q25" si="15">1-L23/L24</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" ref="M25:Q25" si="34">1-M23/M24</f>
+        <f t="shared" si="15"/>
         <v>0.29411764705882348</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="15"/>
         <v>0.38461538461538458</v>
       </c>
       <c r="O25" s="3" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="3" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="15"/>
         <v>7.6923076923076872E-2</v>
       </c>
     </row>
@@ -2189,27 +2206,27 @@
         <v>11</v>
       </c>
       <c r="L28" s="3">
-        <f>1-L26/L27</f>
+        <f t="shared" ref="L28:Q28" si="16">1-L26/L27</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" ref="M28:Q28" si="35">1-M26/M27</f>
+        <f t="shared" si="16"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="O28" s="3" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="3" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>0.35</v>
       </c>
     </row>
@@ -2219,27 +2236,27 @@
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="9">
-        <f>1-SUM(L17,L20,L23,L26)/SUM(L18,L21,L24,L27)</f>
+        <f t="shared" ref="L29:Q29" si="17">1-SUM(L17,L20,L23,L26)/SUM(L18,L21,L24,L27)</f>
         <v>0.6619718309859155</v>
       </c>
       <c r="M29" s="9">
-        <f t="shared" ref="M29:Q29" si="36">1-SUM(M17,M20,M23,M26)/SUM(M18,M21,M24,M27)</f>
+        <f t="shared" si="17"/>
         <v>0.42253521126760563</v>
       </c>
       <c r="N29" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="17"/>
         <v>0.59210526315789469</v>
       </c>
       <c r="O29" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="9" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="17"/>
         <v>0.26436781609195403</v>
       </c>
       <c r="R29" s="10">
@@ -2347,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B58219-FF6E-4F14-AEAF-2D4CEA1BD871}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3252,6 +3269,64 @@
       </c>
       <c r="S27" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1">
+        <v>48</v>
+      </c>
+      <c r="C28" s="6">
+        <v>45604</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1">
+        <v>85</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45605</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="1">
+        <v>6</v>
+      </c>
+      <c r="F29" s="1">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1">
+        <v>12</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5</v>
+      </c>
+      <c r="M29" s="1">
+        <v>5</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>5</v>
+      </c>
+      <c r="S29" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB06D82A-1FDC-4A86-BEB3-2319B85CA791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BA9720-1BF6-4903-89B5-ABFFB6923DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="练习册" sheetId="2" r:id="rId1"/>
-    <sheet name="一轮真题与模拟" sheetId="3" r:id="rId2"/>
-    <sheet name="顽固错题" sheetId="4" r:id="rId3"/>
+    <sheet name="顽固错题" sheetId="4" r:id="rId2"/>
+    <sheet name="一轮真题与模拟" sheetId="3" r:id="rId3"/>
+    <sheet name="二轮真题与模拟" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">练习册!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="91">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -397,6 +397,46 @@
   </si>
   <si>
     <t>3h06min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24共创（2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h38min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24共创（3）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24共创（4）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h08min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24共创（5）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超越（1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h39min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -608,14 +648,14 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -630,6 +670,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -668,7 +711,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -955,7 +1004,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1086,7 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1063,7 +1112,7 @@
         <f>29+16</f>
         <v>45</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1186,7 +1235,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1211,7 +1260,7 @@
         <f>8+3+6+37</f>
         <v>54</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1335,7 +1384,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1361,7 +1410,7 @@
         <f>11+19+18+20</f>
         <v>68</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1407,7 +1456,7 @@
         <f>19+31+40+35</f>
         <v>125</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1455,7 +1504,7 @@
         <f t="shared" si="4"/>
         <v>0.45599999999999996</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1485,7 +1534,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1509,7 +1558,7 @@
       <c r="H12" s="2">
         <v>43</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1656,31 +1705,31 @@
       <c r="H15" s="2">
         <v>15</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="9">
+      <c r="K15" s="9"/>
+      <c r="L15" s="11">
         <f t="shared" ref="L15:Q15" si="8">1-SUM(L3,L6,L9,L12)/SUM(L4,L7,L10,L13)</f>
         <v>0.75</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="11">
         <f t="shared" si="8"/>
         <v>0.70270270270270263</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="11">
         <f t="shared" si="8"/>
         <v>0.66917293233082709</v>
       </c>
-      <c r="O15" s="9" t="e">
+      <c r="O15" s="11" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P15" s="9" t="e">
+      <c r="P15" s="11" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="11">
         <f t="shared" si="8"/>
         <v>0.30434782608695654</v>
       </c>
@@ -1713,14 +1762,14 @@
       <c r="H16" s="2">
         <v>28</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1752,7 +1801,7 @@
         <f t="shared" si="9"/>
         <v>0.4642857142857143</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1899,7 +1948,7 @@
         <f t="shared" si="11"/>
         <v>0.46753246753246758</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -2068,31 +2117,31 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9">
+      <c r="B24" s="9"/>
+      <c r="C24" s="11">
         <f t="shared" ref="C24:H24" si="14">1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
         <v>0.64179104477611948</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="11">
         <f t="shared" si="14"/>
         <v>0.68717948717948718</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="11">
         <f t="shared" si="14"/>
         <v>0.60526315789473684</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="11">
         <f t="shared" si="14"/>
         <v>0.62190812720848054</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="11">
         <f t="shared" si="14"/>
         <v>0.44827586206896552</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="11">
         <f t="shared" si="14"/>
         <v>0.47627416520210897</v>
       </c>
@@ -2120,14 +2169,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="2" t="s">
@@ -2231,31 +2280,31 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="9">
+      <c r="K29" s="9"/>
+      <c r="L29" s="11">
         <f t="shared" ref="L29:Q29" si="17">1-SUM(L17,L20,L23,L26)/SUM(L18,L21,L24,L27)</f>
         <v>0.6619718309859155</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="11">
         <f t="shared" si="17"/>
         <v>0.42253521126760563</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="11">
         <f t="shared" si="17"/>
         <v>0.59210526315789469</v>
       </c>
-      <c r="O29" s="9" t="e">
+      <c r="O29" s="11" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="9" t="e">
+      <c r="P29" s="11" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="11">
         <f t="shared" si="17"/>
         <v>0.26436781609195403</v>
       </c>
@@ -2265,51 +2314,18 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
       <c r="R30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A21:A23"/>
@@ -2326,6 +2342,39 @@
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="O29:O30"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J20:J22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C5:H5 C8:H8 C5:H11 C8:H8 C11:H11 C14:H14 C17:H17 C20:H20 C23:H23 C24:H24">
@@ -2363,11 +2412,356 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8872AF1F-349A-4F25-9E9B-8AD2468CC9C7}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A3:B5"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="A12:B14"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C6:H6 C14:G14 C17:G17 C20:G20 C24:H24 C5:G5 C9:H9 C7:G8 C10:G11 C23:G23">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0.6"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B58219-FF6E-4F14-AEAF-2D4CEA1BD871}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3329,6 +3723,148 @@
         <v>3</v>
       </c>
     </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1">
+        <v>100</v>
+      </c>
+      <c r="C30" s="6">
+        <v>45606</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="K30" s="1">
+        <v>8</v>
+      </c>
+      <c r="M30" s="1">
+        <v>5</v>
+      </c>
+      <c r="O30" s="1">
+        <v>5</v>
+      </c>
+      <c r="R30" s="1">
+        <v>5</v>
+      </c>
+      <c r="S30" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="1">
+        <v>78</v>
+      </c>
+      <c r="C31" s="6">
+        <v>45607</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="1">
+        <v>103</v>
+      </c>
+      <c r="C32" s="6">
+        <v>45608</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="1">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="J32" s="1">
+        <v>10</v>
+      </c>
+      <c r="L32" s="1">
+        <v>4</v>
+      </c>
+      <c r="M32" s="1">
+        <v>8</v>
+      </c>
+      <c r="O32" s="1">
+        <v>5</v>
+      </c>
+      <c r="S32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="1">
+        <v>78</v>
+      </c>
+      <c r="C33" s="6">
+        <v>45610</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="1">
+        <v>110</v>
+      </c>
+      <c r="C34" s="6">
+        <v>45610</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4</v>
+      </c>
+      <c r="K34" s="1">
+        <v>6</v>
+      </c>
+      <c r="O34" s="1">
+        <v>4</v>
+      </c>
+      <c r="P34" s="1">
+        <v>5</v>
+      </c>
+      <c r="R34" s="1">
+        <v>5</v>
+      </c>
+      <c r="S34" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="L1:O1"/>
@@ -3345,347 +3881,802 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8872AF1F-349A-4F25-9E9B-8AD2468CC9C7}">
-  <dimension ref="A1:H25"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC9B779-DAC0-4927-A857-E643CA759228}">
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+    </row>
+    <row r="2" spans="1:19" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="29"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="L2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A3:B5"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C6:H6 C14:G14 C17:G17 C20:G20 C24:H24 C5:G5 C9:H9 C7:G8 C10:G11 C23:G23">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="0.6"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BA9720-1BF6-4903-89B5-ABFFB6923DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF60047-6883-4556-B912-E311A2BC80D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="93">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -437,6 +437,14 @@
   </si>
   <si>
     <t>3h39min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超越（2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h47min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -648,20 +656,14 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -670,9 +672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -711,13 +710,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,7 +1085,7 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1112,7 +1111,7 @@
         <f>29+16</f>
         <v>45</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1235,7 +1234,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1260,7 +1259,7 @@
         <f>8+3+6+37</f>
         <v>54</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1384,7 +1383,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1410,7 +1409,7 @@
         <f>11+19+18+20</f>
         <v>68</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1456,7 +1455,7 @@
         <f>19+31+40+35</f>
         <v>125</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1504,7 +1503,7 @@
         <f t="shared" si="4"/>
         <v>0.45599999999999996</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1533,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1558,7 +1557,7 @@
       <c r="H12" s="2">
         <v>43</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1705,31 +1704,31 @@
       <c r="H15" s="2">
         <v>15</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="11">
+      <c r="K15" s="11"/>
+      <c r="L15" s="9">
         <f t="shared" ref="L15:Q15" si="8">1-SUM(L3,L6,L9,L12)/SUM(L4,L7,L10,L13)</f>
         <v>0.75</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="9">
         <f t="shared" si="8"/>
         <v>0.70270270270270263</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="9">
         <f t="shared" si="8"/>
         <v>0.66917293233082709</v>
       </c>
-      <c r="O15" s="11" t="e">
+      <c r="O15" s="9" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P15" s="11" t="e">
+      <c r="P15" s="9" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="9">
         <f t="shared" si="8"/>
         <v>0.30434782608695654</v>
       </c>
@@ -1762,14 +1761,14 @@
       <c r="H16" s="2">
         <v>28</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1801,7 +1800,7 @@
         <f t="shared" si="9"/>
         <v>0.4642857142857143</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1948,7 +1947,7 @@
         <f t="shared" si="11"/>
         <v>0.46753246753246758</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -2117,31 +2116,31 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11">
+      <c r="B24" s="11"/>
+      <c r="C24" s="9">
         <f t="shared" ref="C24:H24" si="14">1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
         <v>0.64179104477611948</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <f t="shared" si="14"/>
         <v>0.68717948717948718</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <f t="shared" si="14"/>
         <v>0.60526315789473684</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <f t="shared" si="14"/>
         <v>0.62190812720848054</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="9">
         <f t="shared" si="14"/>
         <v>0.44827586206896552</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <f t="shared" si="14"/>
         <v>0.47627416520210897</v>
       </c>
@@ -2169,14 +2168,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="2" t="s">
@@ -2280,31 +2279,31 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="11">
+      <c r="K29" s="11"/>
+      <c r="L29" s="9">
         <f t="shared" ref="L29:Q29" si="17">1-SUM(L17,L20,L23,L26)/SUM(L18,L21,L24,L27)</f>
         <v>0.6619718309859155</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="9">
         <f t="shared" si="17"/>
         <v>0.42253521126760563</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="9">
         <f t="shared" si="17"/>
         <v>0.59210526315789469</v>
       </c>
-      <c r="O29" s="11" t="e">
+      <c r="O29" s="9" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="11" t="e">
+      <c r="P29" s="9" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="9">
         <f t="shared" si="17"/>
         <v>0.26436781609195403</v>
       </c>
@@ -2314,18 +2313,51 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A21:A23"/>
@@ -2342,39 +2374,6 @@
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="O29:O30"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J20:J22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C5:H5 C8:H8 C5:H11 C8:H8 C11:H11 C14:H14 C17:H17 C20:H20 C23:H23 C24:H24">
@@ -2461,264 +2460,264 @@
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="15"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="16"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="15"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="15"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="15"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="16"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="17"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="15"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="16"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="15"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="16"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="15"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="16"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -2735,11 +2734,11 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6:H6 C14:G14 C17:G17 C20:G20 C24:H24 C5:G5 C9:H9 C7:G8 C10:G11 C23:G23">
@@ -2758,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B58219-FF6E-4F14-AEAF-2D4CEA1BD871}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2785,45 +2784,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
     </row>
     <row r="2" spans="1:19" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
@@ -3863,6 +3862,35 @@
       </c>
       <c r="S34" s="1">
         <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="1">
+        <v>101</v>
+      </c>
+      <c r="C35" s="6">
+        <v>45611</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="1">
+        <v>16</v>
+      </c>
+      <c r="H35" s="1">
+        <v>14</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5</v>
+      </c>
+      <c r="O35" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3895,45 +3923,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
     </row>
     <row r="2" spans="1:19" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
@@ -4352,25 +4380,25 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -4438,7 +4466,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="30"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF60047-6883-4556-B912-E311A2BC80D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531AA271-206D-4429-A050-C5E3880E79CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="102">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -432,19 +432,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>超越（1）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3h39min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>超越（2）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2h47min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25超越（1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25超越（2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李永乐（1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李永乐（2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25超越（3）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h36min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25超越（4）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h14min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李永乐（3）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选填</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2757,10 +2793,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B58219-FF6E-4F14-AEAF-2D4CEA1BD871}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3831,7 +3867,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1">
         <v>110</v>
@@ -3840,7 +3876,7 @@
         <v>45610</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F34" s="1">
         <v>6</v>
@@ -3866,7 +3902,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B35" s="1">
         <v>101</v>
@@ -3875,7 +3911,7 @@
         <v>45611</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G35" s="1">
         <v>16</v>
@@ -3891,6 +3927,142 @@
       </c>
       <c r="Q35" s="1">
         <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="1">
+        <v>50</v>
+      </c>
+      <c r="C36" s="6">
+        <v>45611</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>15</v>
+      </c>
+      <c r="L36" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1">
+        <v>60</v>
+      </c>
+      <c r="C37" s="6">
+        <v>45612</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="1">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5</v>
+      </c>
+      <c r="O37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="1">
+        <v>117</v>
+      </c>
+      <c r="C38" s="6">
+        <v>45612</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="1">
+        <v>3</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5</v>
+      </c>
+      <c r="K38" s="1">
+        <v>5</v>
+      </c>
+      <c r="L38" s="1">
+        <v>5</v>
+      </c>
+      <c r="O38" s="1">
+        <v>5</v>
+      </c>
+      <c r="P38" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1">
+        <v>120</v>
+      </c>
+      <c r="C39" s="6">
+        <v>45613</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="1">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>5</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>9</v>
+      </c>
+      <c r="R39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="1">
+        <v>70</v>
+      </c>
+      <c r="C40" s="6">
+        <v>45613</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" s="1">
+        <v>5</v>
+      </c>
+      <c r="L40" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531AA271-206D-4429-A050-C5E3880E79CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF125BB2-BF76-4FA2-BB28-A69ABC9D8309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -481,6 +481,38 @@
   </si>
   <si>
     <t>选填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李永乐（4）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25超越（5）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h55min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h31min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24超越（1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李六（1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -692,14 +724,14 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -708,6 +740,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -744,9 +779,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1121,7 +1153,7 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1147,7 +1179,7 @@
         <f>29+16</f>
         <v>45</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1270,7 +1302,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1295,7 +1327,7 @@
         <f>8+3+6+37</f>
         <v>54</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1419,7 +1451,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1445,7 +1477,7 @@
         <f>11+19+18+20</f>
         <v>68</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1491,7 +1523,7 @@
         <f>19+31+40+35</f>
         <v>125</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="9"/>
       <c r="K10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1539,7 +1571,7 @@
         <f t="shared" si="4"/>
         <v>0.45599999999999996</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1569,7 +1601,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1593,7 +1625,7 @@
       <c r="H12" s="2">
         <v>43</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1740,31 +1772,31 @@
       <c r="H15" s="2">
         <v>15</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="9">
+      <c r="K15" s="9"/>
+      <c r="L15" s="11">
         <f t="shared" ref="L15:Q15" si="8">1-SUM(L3,L6,L9,L12)/SUM(L4,L7,L10,L13)</f>
         <v>0.75</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="11">
         <f t="shared" si="8"/>
         <v>0.70270270270270263</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="11">
         <f t="shared" si="8"/>
         <v>0.66917293233082709</v>
       </c>
-      <c r="O15" s="9" t="e">
+      <c r="O15" s="11" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P15" s="9" t="e">
+      <c r="P15" s="11" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="11">
         <f t="shared" si="8"/>
         <v>0.30434782608695654</v>
       </c>
@@ -1797,14 +1829,14 @@
       <c r="H16" s="2">
         <v>28</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1836,7 +1868,7 @@
         <f t="shared" si="9"/>
         <v>0.4642857142857143</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1983,7 +2015,7 @@
         <f t="shared" si="11"/>
         <v>0.46753246753246758</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -2152,31 +2184,31 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9">
+      <c r="B24" s="9"/>
+      <c r="C24" s="11">
         <f t="shared" ref="C24:H24" si="14">1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
         <v>0.64179104477611948</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="11">
         <f t="shared" si="14"/>
         <v>0.68717948717948718</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="11">
         <f t="shared" si="14"/>
         <v>0.60526315789473684</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="11">
         <f t="shared" si="14"/>
         <v>0.62190812720848054</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="11">
         <f t="shared" si="14"/>
         <v>0.44827586206896552</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="11">
         <f t="shared" si="14"/>
         <v>0.47627416520210897</v>
       </c>
@@ -2204,14 +2236,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="2" t="s">
@@ -2315,31 +2347,31 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="9">
+      <c r="K29" s="9"/>
+      <c r="L29" s="11">
         <f t="shared" ref="L29:Q29" si="17">1-SUM(L17,L20,L23,L26)/SUM(L18,L21,L24,L27)</f>
         <v>0.6619718309859155</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="11">
         <f t="shared" si="17"/>
         <v>0.42253521126760563</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="11">
         <f t="shared" si="17"/>
         <v>0.59210526315789469</v>
       </c>
-      <c r="O29" s="9" t="e">
+      <c r="O29" s="11" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="9" t="e">
+      <c r="P29" s="11" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="11">
         <f t="shared" si="17"/>
         <v>0.26436781609195403</v>
       </c>
@@ -2349,51 +2381,18 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
       <c r="R30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A21:A23"/>
@@ -2410,6 +2409,39 @@
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="O29:O30"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J20:J22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C5:H5 C8:H8 C5:H11 C8:H8 C11:H11 C14:H14 C17:H17 C20:H20 C23:H23 C24:H24">
@@ -2496,10 +2528,10 @@
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2510,8 +2542,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2520,8 +2552,8 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2530,10 +2562,10 @@
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2544,8 +2576,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2554,8 +2586,8 @@
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2564,10 +2596,10 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2578,8 +2610,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2588,8 +2620,8 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2598,20 +2630,20 @@
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="27"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2620,8 +2652,8 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2630,20 +2662,20 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="27"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2652,8 +2684,8 @@
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2662,20 +2694,20 @@
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="27"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2684,8 +2716,8 @@
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2694,10 +2726,10 @@
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2708,8 +2740,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2718,8 +2750,8 @@
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2728,32 +2760,32 @@
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -2770,11 +2802,11 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6:H6 C14:G14 C17:G17 C20:G20 C24:H24 C5:G5 C9:H9 C7:G8 C10:G11 C23:G23">
@@ -2793,10 +2825,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B58219-FF6E-4F14-AEAF-2D4CEA1BD871}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="77" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4065,6 +4097,119 @@
         <v>5</v>
       </c>
     </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="1">
+        <v>65</v>
+      </c>
+      <c r="C41" s="6">
+        <v>45614</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="1">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1">
+        <v>5</v>
+      </c>
+      <c r="O41" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="1">
+        <v>64</v>
+      </c>
+      <c r="C42" s="6">
+        <v>45614</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="1">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1">
+        <v>10</v>
+      </c>
+      <c r="H42" s="1">
+        <v>10</v>
+      </c>
+      <c r="I42" s="1">
+        <v>5</v>
+      </c>
+      <c r="K42" s="1">
+        <v>5</v>
+      </c>
+      <c r="N42" s="1">
+        <v>5</v>
+      </c>
+      <c r="P42" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>5</v>
+      </c>
+      <c r="R42" s="1">
+        <v>5</v>
+      </c>
+      <c r="S42" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="1">
+        <v>92</v>
+      </c>
+      <c r="C43" s="6">
+        <v>45615</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="1">
+        <v>18</v>
+      </c>
+      <c r="G43" s="1">
+        <v>8</v>
+      </c>
+      <c r="H43" s="1">
+        <v>12</v>
+      </c>
+      <c r="L43" s="1">
+        <v>5</v>
+      </c>
+      <c r="N43" s="1">
+        <v>10</v>
+      </c>
+      <c r="R43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="1">
+        <v>69</v>
+      </c>
+      <c r="C44" s="6">
+        <v>45615</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="L1:O1"/>
@@ -4086,7 +4231,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF125BB2-BF76-4FA2-BB28-A69ABC9D8309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EA2B19-B7A5-4C50-B629-2395096580B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -513,6 +513,14 @@
   </si>
   <si>
     <t>练习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李六（2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h58min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -724,14 +732,14 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -740,9 +748,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -779,6 +784,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1153,7 +1161,7 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1179,7 +1187,7 @@
         <f>29+16</f>
         <v>45</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1302,7 +1310,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1327,7 +1335,7 @@
         <f>8+3+6+37</f>
         <v>54</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1451,7 +1459,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1477,7 +1485,7 @@
         <f>11+19+18+20</f>
         <v>68</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1523,7 +1531,7 @@
         <f>19+31+40+35</f>
         <v>125</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1571,7 +1579,7 @@
         <f t="shared" si="4"/>
         <v>0.45599999999999996</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1601,7 +1609,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1625,7 +1633,7 @@
       <c r="H12" s="2">
         <v>43</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="11" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1772,31 +1780,31 @@
       <c r="H15" s="2">
         <v>15</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="11">
+      <c r="K15" s="11"/>
+      <c r="L15" s="9">
         <f t="shared" ref="L15:Q15" si="8">1-SUM(L3,L6,L9,L12)/SUM(L4,L7,L10,L13)</f>
         <v>0.75</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="9">
         <f t="shared" si="8"/>
         <v>0.70270270270270263</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="9">
         <f t="shared" si="8"/>
         <v>0.66917293233082709</v>
       </c>
-      <c r="O15" s="11" t="e">
+      <c r="O15" s="9" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P15" s="11" t="e">
+      <c r="P15" s="9" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="9">
         <f t="shared" si="8"/>
         <v>0.30434782608695654</v>
       </c>
@@ -1829,14 +1837,14 @@
       <c r="H16" s="2">
         <v>28</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="10"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1868,7 +1876,7 @@
         <f t="shared" si="9"/>
         <v>0.4642857142857143</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="11" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -2015,7 +2023,7 @@
         <f t="shared" si="11"/>
         <v>0.46753246753246758</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -2184,31 +2192,31 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11">
+      <c r="B24" s="11"/>
+      <c r="C24" s="9">
         <f t="shared" ref="C24:H24" si="14">1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
         <v>0.64179104477611948</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <f t="shared" si="14"/>
         <v>0.68717948717948718</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <f t="shared" si="14"/>
         <v>0.60526315789473684</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <f t="shared" si="14"/>
         <v>0.62190812720848054</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="9">
         <f t="shared" si="14"/>
         <v>0.44827586206896552</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="9">
         <f t="shared" si="14"/>
         <v>0.47627416520210897</v>
       </c>
@@ -2236,14 +2244,14 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="2" t="s">
@@ -2347,31 +2355,31 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="11">
+      <c r="K29" s="11"/>
+      <c r="L29" s="9">
         <f t="shared" ref="L29:Q29" si="17">1-SUM(L17,L20,L23,L26)/SUM(L18,L21,L24,L27)</f>
         <v>0.6619718309859155</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="9">
         <f t="shared" si="17"/>
         <v>0.42253521126760563</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="9">
         <f t="shared" si="17"/>
         <v>0.59210526315789469</v>
       </c>
-      <c r="O29" s="11" t="e">
+      <c r="O29" s="9" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="11" t="e">
+      <c r="P29" s="9" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="9">
         <f t="shared" si="17"/>
         <v>0.26436781609195403</v>
       </c>
@@ -2381,18 +2389,51 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A21:A23"/>
@@ -2409,39 +2450,6 @@
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="O29:O30"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J20:J22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C5:H5 C8:H8 C5:H11 C8:H8 C11:H11 C14:H14 C17:H17 C20:H20 C23:H23 C24:H24">
@@ -2528,10 +2536,10 @@
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2542,8 +2550,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2552,8 +2560,8 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2562,10 +2570,10 @@
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2576,8 +2584,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2586,8 +2594,8 @@
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2596,10 +2604,10 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2610,8 +2618,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2620,8 +2628,8 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2630,20 +2638,20 @@
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2652,8 +2660,8 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2662,20 +2670,20 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="15"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2684,8 +2692,8 @@
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2694,20 +2702,20 @@
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="15"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2716,8 +2724,8 @@
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -2726,10 +2734,10 @@
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -2740,8 +2748,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2750,8 +2758,8 @@
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2760,32 +2768,32 @@
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -2802,11 +2810,11 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6:H6 C14:G14 C17:G17 C20:G20 C24:H24 C5:G5 C9:H9 C7:G8 C10:G11 C23:G23">
@@ -2825,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B58219-FF6E-4F14-AEAF-2D4CEA1BD871}">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="77" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4208,6 +4216,35 @@
       </c>
       <c r="D44" s="1" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="1">
+        <v>91</v>
+      </c>
+      <c r="C45" s="6">
+        <v>45616</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" s="1">
+        <v>20</v>
+      </c>
+      <c r="I45" s="1">
+        <v>17</v>
+      </c>
+      <c r="K45" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>12</v>
+      </c>
+      <c r="R45" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EA2B19-B7A5-4C50-B629-2395096580B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E2333C-CA21-4042-86B4-87BF1B1E7074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -521,6 +521,66 @@
   </si>
   <si>
     <t>2h58min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李六（3）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李六（4）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h46min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李六（5）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h37min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李六（6）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h20min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25共创（1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h57min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李永乐（5）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25共创（2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h06min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李永乐（6）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选填</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2833,10 +2893,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B58219-FF6E-4F14-AEAF-2D4CEA1BD871}">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="64" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4244,6 +4304,247 @@
         <v>12</v>
       </c>
       <c r="R45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="1">
+        <v>119</v>
+      </c>
+      <c r="C46" s="6">
+        <v>45617</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="1">
+        <v>10</v>
+      </c>
+      <c r="K46" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="1">
+        <v>85</v>
+      </c>
+      <c r="C47" s="6">
+        <v>45618</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="1">
+        <v>8</v>
+      </c>
+      <c r="F47" s="1">
+        <v>12</v>
+      </c>
+      <c r="G47" s="1">
+        <v>6</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5</v>
+      </c>
+      <c r="K47" s="1">
+        <v>12</v>
+      </c>
+      <c r="N47" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="1">
+        <v>122</v>
+      </c>
+      <c r="C48" s="6">
+        <v>45619</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="1">
+        <v>5</v>
+      </c>
+      <c r="H48" s="1">
+        <v>5</v>
+      </c>
+      <c r="K48" s="1">
+        <v>5</v>
+      </c>
+      <c r="N48" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="1">
+        <v>101</v>
+      </c>
+      <c r="C49" s="6">
+        <v>45620</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" s="1">
+        <v>17</v>
+      </c>
+      <c r="K49" s="1">
+        <v>5</v>
+      </c>
+      <c r="O49" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>5</v>
+      </c>
+      <c r="R49" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="1">
+        <v>106</v>
+      </c>
+      <c r="C50" s="6">
+        <v>45621</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="1">
+        <v>13</v>
+      </c>
+      <c r="F50" s="1">
+        <v>5</v>
+      </c>
+      <c r="H50" s="1">
+        <v>12</v>
+      </c>
+      <c r="J50" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45</v>
+      </c>
+      <c r="C51" s="6">
+        <v>45621</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="1">
+        <v>15</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5</v>
+      </c>
+      <c r="H51" s="1">
+        <v>5</v>
+      </c>
+      <c r="P51" s="1">
+        <v>5</v>
+      </c>
+      <c r="R51" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="1">
+        <v>66</v>
+      </c>
+      <c r="C52" s="6">
+        <v>45622</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="1">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1">
+        <v>10</v>
+      </c>
+      <c r="H52" s="1">
+        <v>10</v>
+      </c>
+      <c r="J52" s="1">
+        <v>5</v>
+      </c>
+      <c r="K52" s="1">
+        <v>15</v>
+      </c>
+      <c r="O52" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>5</v>
+      </c>
+      <c r="R52" s="1">
+        <v>4</v>
+      </c>
+      <c r="S52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="1">
+        <v>50</v>
+      </c>
+      <c r="C53" s="6">
+        <v>45624</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="1">
+        <v>10</v>
+      </c>
+      <c r="K53" s="1">
+        <v>5</v>
+      </c>
+      <c r="M53" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>5</v>
+      </c>
+      <c r="R53" s="1">
         <v>5</v>
       </c>
     </row>

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E2333C-CA21-4042-86B4-87BF1B1E7074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54A1909-E6D5-43AB-A823-6C45D98C5064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="练习册" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">练习册!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="142">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -581,6 +582,66 @@
   </si>
   <si>
     <t>选填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h17min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数标红的是比第一轮分低的；时间标红是比第一轮用时长的；在错题标数字的是考试前需要再看的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h09min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h32min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h09min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张四（1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h07min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h59min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张四（2）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3h07min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议重做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -623,7 +684,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,6 +694,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8282"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,7 +833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -792,14 +859,17 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -808,6 +878,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -846,14 +919,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -862,6 +941,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8282"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1153,43 +1238,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1202,10 +1287,10 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1218,10 +1303,10 @@
       <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1247,7 +1332,7 @@
         <f>29+16</f>
         <v>45</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1269,7 +1354,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1292,7 +1377,7 @@
       <c r="H4" s="2">
         <v>96</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1312,7 +1397,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1340,7 +1425,7 @@
         <f t="shared" si="0"/>
         <v>0.53125</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1370,7 +1455,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1395,7 +1480,7 @@
         <f>8+3+6+37</f>
         <v>54</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1417,7 +1502,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1441,7 +1526,7 @@
         <f>11+14+19+50</f>
         <v>94</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1461,7 +1546,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1489,7 +1574,7 @@
         <f t="shared" si="2"/>
         <v>0.42553191489361697</v>
       </c>
-      <c r="J8" s="10"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1519,7 +1604,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1545,7 +1630,7 @@
         <f>11+19+18+20</f>
         <v>68</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1567,7 +1652,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1591,7 +1676,7 @@
         <f>19+31+40+35</f>
         <v>125</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1611,7 +1696,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1639,7 +1724,7 @@
         <f t="shared" si="4"/>
         <v>0.45599999999999996</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1669,7 +1754,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1693,7 +1778,7 @@
       <c r="H12" s="2">
         <v>43</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1715,7 +1800,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1738,7 +1823,7 @@
       <c r="H13" s="2">
         <v>83</v>
       </c>
-      <c r="J13" s="10"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1758,7 +1843,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1786,7 +1871,7 @@
         <f t="shared" si="6"/>
         <v>0.48192771084337349</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1816,7 +1901,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1840,41 +1925,41 @@
       <c r="H15" s="2">
         <v>15</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="9">
+      <c r="K15" s="10"/>
+      <c r="L15" s="12">
         <f t="shared" ref="L15:Q15" si="8">1-SUM(L3,L6,L9,L12)/SUM(L4,L7,L10,L13)</f>
         <v>0.75</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="12">
         <f t="shared" si="8"/>
         <v>0.70270270270270263</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="12">
         <f t="shared" si="8"/>
         <v>0.66917293233082709</v>
       </c>
-      <c r="O15" s="9" t="e">
+      <c r="O15" s="12" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P15" s="9" t="e">
+      <c r="P15" s="12" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="12">
         <f t="shared" si="8"/>
         <v>0.30434782608695654</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="11">
         <f>SUM(L4:Q4,L7:Q7,L10:Q10,L13:Q13)</f>
         <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1897,18 +1982,18 @@
       <c r="H16" s="2">
         <v>28</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1936,7 +2021,7 @@
         <f t="shared" si="9"/>
         <v>0.4642857142857143</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -1958,7 +2043,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1982,7 +2067,7 @@
       <c r="H18" s="2">
         <v>41</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="2" t="s">
         <v>12</v>
       </c>
@@ -2002,7 +2087,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
@@ -2025,7 +2110,7 @@
       <c r="H19" s="2">
         <v>77</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="2" t="s">
         <v>11</v>
       </c>
@@ -2055,7 +2140,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
@@ -2083,7 +2168,7 @@
         <f t="shared" si="11"/>
         <v>0.46753246753246758</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -2105,7 +2190,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2129,7 +2214,7 @@
       <c r="H21" s="2">
         <v>32</v>
       </c>
-      <c r="J21" s="10"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="2" t="s">
         <v>12</v>
       </c>
@@ -2149,7 +2234,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
@@ -2172,7 +2257,7 @@
       <c r="H22" s="2">
         <v>66</v>
       </c>
-      <c r="J22" s="10"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="2" t="s">
         <v>11</v>
       </c>
@@ -2202,7 +2287,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
@@ -2230,7 +2315,7 @@
         <f t="shared" si="13"/>
         <v>0.51515151515151514</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="11" t="s">
         <v>24</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -2252,39 +2337,39 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9">
+      <c r="B24" s="10"/>
+      <c r="C24" s="12">
         <f t="shared" ref="C24:H24" si="14">1-(C3+C6+C9+C12+C15+C18+C21)/(C4+C7+C10+C13+C16+C19+C22)</f>
         <v>0.64179104477611948</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="12">
         <f t="shared" si="14"/>
         <v>0.68717948717948718</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="12">
         <f t="shared" si="14"/>
         <v>0.60526315789473684</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="12">
         <f t="shared" si="14"/>
         <v>0.62190812720848054</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="12">
         <f t="shared" si="14"/>
         <v>0.44827586206896552</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="12">
         <f t="shared" si="14"/>
         <v>0.47627416520210897</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="11">
         <f>SUM(C4:H4,C7:H7,C13:H13,C16:H16,C19:H19,C22:H22,C10:H10)</f>
         <v>2079</v>
       </c>
-      <c r="J24" s="10"/>
+      <c r="J24" s="11"/>
       <c r="K24" s="2" t="s">
         <v>12</v>
       </c>
@@ -2304,16 +2389,16 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="2" t="s">
         <v>11</v>
       </c>
@@ -2343,7 +2428,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -2365,7 +2450,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J27" s="10"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="2" t="s">
         <v>12</v>
       </c>
@@ -2385,7 +2470,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J28" s="10"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="2" t="s">
         <v>11</v>
       </c>
@@ -2415,85 +2500,52 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="9">
+      <c r="K29" s="10"/>
+      <c r="L29" s="12">
         <f t="shared" ref="L29:Q29" si="17">1-SUM(L17,L20,L23,L26)/SUM(L18,L21,L24,L27)</f>
         <v>0.6619718309859155</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="12">
         <f t="shared" si="17"/>
         <v>0.42253521126760563</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="12">
         <f t="shared" si="17"/>
         <v>0.59210526315789469</v>
       </c>
-      <c r="O29" s="9" t="e">
+      <c r="O29" s="12" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="9" t="e">
+      <c r="P29" s="12" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="9">
+      <c r="Q29" s="12">
         <f t="shared" si="17"/>
         <v>0.26436781609195403</v>
       </c>
-      <c r="R29" s="10">
+      <c r="R29" s="11">
         <f>SUM(L18:Q18,L21:Q21,L24:Q24,L27:Q27)</f>
         <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="P29:P30"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="A21:A23"/>
@@ -2510,6 +2562,39 @@
     <mergeCell ref="M29:M30"/>
     <mergeCell ref="N29:N30"/>
     <mergeCell ref="O29:O30"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="J29:K30"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="J20:J22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C5:H5 C8:H8 C5:H11 C8:H8 C11:H11 C14:H14 C17:H17 C20:H20 C23:H23 C24:H24">
@@ -2560,27 +2645,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2593,267 +2678,267 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="27"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="27"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="27"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="14"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
@@ -2870,11 +2955,11 @@
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C6:H6 C14:G14 C17:G17 C20:G20 C24:H24 C5:G5 C9:H9 C7:G8 C10:G11 C23:G23">
@@ -2893,10 +2978,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B58219-FF6E-4F14-AEAF-2D4CEA1BD871}">
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="64" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView zoomScale="79" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2920,45 +3005,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28" t="s">
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
@@ -4546,6 +4631,70 @@
       </c>
       <c r="R53" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="1">
+        <v>106</v>
+      </c>
+      <c r="C54" s="6">
+        <v>45630</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="1">
+        <v>12</v>
+      </c>
+      <c r="J54" s="1">
+        <v>5</v>
+      </c>
+      <c r="K54" s="1">
+        <v>12</v>
+      </c>
+      <c r="N54" s="1">
+        <v>5</v>
+      </c>
+      <c r="O54" s="1">
+        <v>5</v>
+      </c>
+      <c r="S54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="1">
+        <v>97</v>
+      </c>
+      <c r="C55" s="6">
+        <v>45633</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G55" s="1">
+        <v>8</v>
+      </c>
+      <c r="H55" s="1">
+        <v>5</v>
+      </c>
+      <c r="J55" s="1">
+        <v>5</v>
+      </c>
+      <c r="K55" s="1">
+        <v>17</v>
+      </c>
+      <c r="O55" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4566,57 +4715,58 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC9B779-DAC0-4927-A857-E643CA759228}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="65" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28" t="s">
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
@@ -4664,42 +4814,50 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="A3" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
+        <v>2011</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45625</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -4711,17 +4869,23 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
+        <v>2012</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45625</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -4734,21 +4898,29 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
+        <v>2014</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45630</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -4756,39 +4928,63 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45630</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1">
+        <v>5</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45631</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -4802,14 +4998,20 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45631</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -4825,38 +5027,64 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45633</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1">
+        <v>11</v>
+      </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1">
+        <v>11</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45633</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -4867,20 +5095,34 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45633</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1">
+        <v>11</v>
+      </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -4888,32 +5130,52 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="6">
+        <v>45633</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1">
+        <v>14</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="P13" s="1">
+        <v>4</v>
+      </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="1">
+        <v>132</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45628</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4923,23 +5185,41 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="O14" s="1">
+        <v>6</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="R14" s="1">
+        <v>2</v>
+      </c>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="1">
+        <v>117</v>
+      </c>
+      <c r="C15" s="6">
+        <v>45630</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1">
+        <v>11</v>
+      </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1">
+        <v>5</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -4947,17 +5227,33 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="R15" s="1">
+        <v>5</v>
+      </c>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="A16" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="1">
+        <v>138</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45631</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -4972,7 +5268,9 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>2024</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
@@ -4993,7 +5291,9 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>2010</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
@@ -5014,7 +5314,9 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>2009</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
@@ -5056,25 +5358,25 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -5098,7 +5400,9 @@
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="6"/>
       <c r="D23" s="1"/>
@@ -5119,70 +5423,140 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="9">
+        <v>101</v>
+      </c>
+      <c r="C24" s="6">
+        <v>45625</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="1">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="1">
+        <v>5</v>
+      </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="R24" s="1">
+        <v>14</v>
+      </c>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1">
+        <v>92</v>
+      </c>
+      <c r="C25" s="6">
+        <v>45626</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="G25" s="1">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1">
+        <v>11</v>
+      </c>
+      <c r="I25" s="1">
+        <v>5</v>
+      </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1">
+        <v>5</v>
+      </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="M25" s="1">
+        <v>4</v>
+      </c>
+      <c r="N25" s="1">
+        <v>5</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
+      <c r="R25" s="1">
+        <v>5</v>
+      </c>
+      <c r="S25" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1">
+        <v>84</v>
+      </c>
+      <c r="C26" s="6">
+        <v>45627</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="1">
+        <v>16</v>
+      </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>17</v>
+      </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1">
+        <v>10</v>
+      </c>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1">
+        <v>5</v>
+      </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1">
+        <v>4</v>
+      </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="Q26" s="1">
+        <v>9</v>
+      </c>
+      <c r="R26" s="1">
+        <v>5</v>
+      </c>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="6"/>
       <c r="D27" s="1"/>
@@ -5203,7 +5577,9 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="6"/>
       <c r="D28" s="1"/>
@@ -5224,7 +5600,9 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="6"/>
       <c r="D29" s="1"/>
@@ -5245,7 +5623,9 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="6"/>
       <c r="D30" s="1"/>
@@ -5266,7 +5646,9 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="6"/>
       <c r="D31" s="1"/>
@@ -5287,7 +5669,9 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="6"/>
       <c r="D32" s="1"/>
@@ -5308,7 +5692,9 @@
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B33" s="1"/>
       <c r="C33" s="6"/>
       <c r="D33" s="1"/>
@@ -5329,7 +5715,9 @@
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B34" s="1"/>
       <c r="C34" s="6"/>
       <c r="D34" s="1"/>
@@ -5349,8 +5737,580 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="6">
+        <v>45634</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="6">
+        <v>45634</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1">
+        <v>12</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1">
+        <v>5</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1">
+        <v>5</v>
+      </c>
+      <c r="O36" s="1">
+        <v>5</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1">
+        <v>5</v>
+      </c>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="6">
+        <v>45636</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="6">
+        <v>45636</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="6">
+        <v>45634</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1">
+        <v>5</v>
+      </c>
+      <c r="L39" s="1">
+        <v>5</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1">
+        <v>5</v>
+      </c>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="6">
+        <v>45635</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1">
+        <v>12</v>
+      </c>
+      <c r="L40" s="1">
+        <v>5</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1">
+        <v>5</v>
+      </c>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="6">
+        <v>45637</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1">
+        <v>5</v>
+      </c>
+      <c r="L41" s="1">
+        <v>5</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="6">
+        <v>45637</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1">
+        <v>5</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="6">
+        <v>45635</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="6">
+        <v>45636</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1">
+        <v>5</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1">
+        <v>5</v>
+      </c>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="6">
+        <v>45637</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1">
+        <v>5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>12</v>
+      </c>
+      <c r="I46" s="1">
+        <v>5</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1">
+        <v>12</v>
+      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="6">
+        <v>45638</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1">
+        <v>5</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="6">
+        <v>45638</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1">
+        <v>5</v>
+      </c>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="6">
+        <v>45638</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1">
+        <v>10</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1">
+        <v>5</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1">
+        <v>5</v>
+      </c>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="D43:S43"/>
+    <mergeCell ref="A3:S3"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>

--- a/数学做题记录表.xlsx
+++ b/数学做题记录表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\408-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54A1909-E6D5-43AB-A823-6C45D98C5064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D621B685-BA97-4E3E-ACB0-F3A504EE7F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">练习册!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="147">
   <si>
     <t>无穷级数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -629,19 +628,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>3h07min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议重做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张四（4）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>张四（2）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3h07min</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议重做</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>错题</t>
+    <t>张四（3）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h20min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2978,10 +2997,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B58219-FF6E-4F14-AEAF-2D4CEA1BD871}">
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A15" zoomScale="79" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4667,7 +4686,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B55" s="1">
         <v>97</v>
@@ -4676,7 +4695,7 @@
         <v>45633</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G55" s="1">
         <v>8</v>
@@ -4695,6 +4714,64 @@
       </c>
       <c r="Q55" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="1">
+        <v>55</v>
+      </c>
+      <c r="C56" s="6">
+        <v>45641</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="H56" s="1">
+        <v>5</v>
+      </c>
+      <c r="O56" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="1">
+        <v>50</v>
+      </c>
+      <c r="C57" s="6">
+        <v>45641</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="1">
+        <v>5</v>
+      </c>
+      <c r="H57" s="1">
+        <v>5</v>
+      </c>
+      <c r="I57" s="1">
+        <v>5</v>
+      </c>
+      <c r="K57" s="1">
+        <v>5</v>
+      </c>
+      <c r="R57" s="1">
+        <v>5</v>
+      </c>
+      <c r="S57" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4715,10 +4792,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC9B779-DAC0-4927-A857-E643CA759228}">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="65" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5271,23 +5348,39 @@
       <c r="A17" s="1">
         <v>2024</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="1">
+        <v>116</v>
+      </c>
+      <c r="C17" s="6">
+        <v>45642</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>8</v>
+      </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="1">
+        <v>5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="O17" s="1">
+        <v>6</v>
+      </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="R17" s="1">
+        <v>5</v>
+      </c>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -5922,7 +6015,7 @@
         <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C41" s="6">
         <v>45637</v>
@@ -5955,7 +6048,7 @@
         <v>102</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" s="6">
         <v>45637</v>
@@ -5990,7 +6083,7 @@
         <v>45635</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
@@ -6013,7 +6106,7 @@
         <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C44" s="6">
         <v>45636</v>
@@ -6069,7 +6162,7 @@
         <v>110</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C46" s="6">
         <v>45637</v>
@@ -6104,7 +6197,7 @@
         <v>112</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47" s="6">
         <v>45638</v>
@@ -6132,8 +6225,12 @@
       <c r="A48" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="6"/>
+      <c r="B48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="6">
+        <v>45640</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -6141,10 +6238,14 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="K48" s="1">
+        <v>5</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="N48" s="1">
+        <v>5</v>
+      </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -6155,8 +6256,12 @@
       <c r="A49" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="6">
+        <v>45640</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -6164,7 +6269,9 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
+      <c r="K49" s="1">
+        <v>5</v>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -6178,24 +6285,36 @@
       <c r="A50" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="6"/>
+      <c r="B50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="6">
+        <v>45640</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1">
+        <v>17</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="K50" s="1">
+        <v>5</v>
+      </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="O50" s="1">
+        <v>12</v>
+      </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
+      <c r="S50" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -6225,7 +6344,7 @@
         <v>121</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52" s="6">
         <v>45638</v>
@@ -6277,7 +6396,7 @@
         <v>125</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54" s="6">
         <v>45638</v>
@@ -6306,6 +6425,30 @@
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
